--- a/Measurement Campaign.xlsx
+++ b/Measurement Campaign.xlsx
@@ -11,10 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="55">
-  <si>
-    <t>Date</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="54">
   <si>
     <t>Replication</t>
   </si>
@@ -504,41 +501,39 @@
   </cols>
   <sheetData>
     <row r="1" ht="41.25" customHeight="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2">
@@ -546,19 +541,19 @@
         <v>44644.0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="5">
         <v>5.0</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" s="6">
         <f>(16.8+15.3+16)/3</f>
@@ -569,34 +564,34 @@
         <v>14.76666667</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4"/>
       <c r="B3" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="5">
         <v>5.0</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G3" s="6">
         <f>(20.4+19.4+17.8)/3</f>
@@ -607,34 +602,34 @@
         <v>14.96666667</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4"/>
       <c r="B4" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="5">
         <v>5.0</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G4" s="6">
         <f>(8.1+8.1+9.5)/3</f>
@@ -645,22 +640,22 @@
         <v>19.3</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="5">
         <v>4.0</v>
@@ -669,10 +664,10 @@
         <v>0.0</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G5" s="6">
         <f>(14.1+14.7+13.9)/3</f>
@@ -683,22 +678,22 @@
         <v>13.66666667</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="5">
         <v>5.0</v>
@@ -707,10 +702,10 @@
         <v>3.0</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G6" s="6">
         <f>(14.7+15.5+12.6)/3</f>
@@ -721,22 +716,22 @@
         <v>14.4</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="5">
         <v>5.0</v>
@@ -745,10 +740,10 @@
         <v>4.0</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G7" s="6">
         <f>(11+11.2+10)/3</f>
@@ -759,16 +754,16 @@
         <v>17.63333333</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
@@ -776,93 +771,93 @@
         <v>44658.0</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="5">
         <v>5.0</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" s="5">
         <v>5.0</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G8" s="6">
         <f>(35.1+31+34)/3</f>
         <v>33.36666667</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="5">
         <v>5.0</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" s="5">
         <v>5.0</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G9" s="6">
         <f>(31.9+32.2+29.3)/3</f>
         <v>31.13333333</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="5">
         <v>5.0</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" s="5">
         <v>5.0</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G10" s="6">
         <f>(14.9+16.7+14.5)/3</f>
@@ -872,22 +867,22 @@
         <v>44751.0</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="5">
         <v>5.0</v>
@@ -899,7 +894,7 @@
         <v>44839.0</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G11" s="6">
         <f>(33.7+31.9+35.9)/3</f>
@@ -909,13 +904,13 @@
         <v>44721.0</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L11" s="12">
         <v>44693.0</v>
@@ -924,7 +919,7 @@
     <row r="12">
       <c r="A12" s="4"/>
       <c r="B12" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="5">
         <v>5.0</v>
@@ -936,7 +931,7 @@
         <v>44811.0</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G12" s="6">
         <f>(22.8+25.7+22.1)/3</f>
@@ -946,13 +941,13 @@
         <v>44690.0</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L12" s="12">
         <v>44634.0</v>
@@ -961,7 +956,7 @@
     <row r="13">
       <c r="A13" s="4"/>
       <c r="B13" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" s="5">
         <v>5.0</v>
@@ -973,26 +968,26 @@
         <v>44839.0</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G13" s="6">
         <f>(35.8+33.7+27.2)/3</f>
         <v>32.23333333</v>
       </c>
       <c r="H13" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="I13" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J13" s="8" t="s">
+      <c r="K13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="8" t="s">
         <v>27</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="14">
@@ -1000,93 +995,93 @@
         <v>44679.0</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" s="5">
         <v>5.0</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E14" s="5">
         <v>10.0</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H14" s="7">
         <f>AVERAGEA(21,15.7,17.7)</f>
         <v>18.13333333</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="4"/>
       <c r="B15" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="5">
         <v>5.0</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E15" s="5">
         <v>10.0</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H15" s="7">
         <f>AVERAGEA(22.6,18.3,15)</f>
         <v>18.63333333</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4"/>
       <c r="B16" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" s="5">
         <v>5.0</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E16" s="5">
         <v>10.0</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G16" s="4">
         <v>44647.0</v>
@@ -1096,22 +1091,22 @@
         <v>18.36666667</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="4"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="5">
         <v>5.0</v>
@@ -1126,29 +1121,29 @@
         <v>100.0</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H17" s="7">
         <f>AVERAGEA(13.8,14.6,14.4)</f>
         <v>14.26666667</v>
       </c>
       <c r="I17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J17" s="8" t="s">
         <v>32</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>33</v>
       </c>
       <c r="K17" s="12">
         <v>44630.0</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4"/>
       <c r="B18" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" s="5">
         <v>5.0</v>
@@ -1163,29 +1158,29 @@
         <v>110.0</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H18" s="7">
         <f>AVERAGEA(14.1,14.6,14.4)</f>
         <v>14.36666667</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J18" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L18" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="K18" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="L18" s="8" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="4"/>
       <c r="B19" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" s="5">
         <v>5.0</v>
@@ -1198,20 +1193,20 @@
         <v>110.0</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H19" s="7">
         <f>AVERAGEA(14.2,17.6,17.7)</f>
         <v>16.5</v>
       </c>
       <c r="I19" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J19" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="J19" s="8" t="s">
+      <c r="K19" s="8" t="s">
         <v>40</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>41</v>
       </c>
       <c r="L19" s="12">
         <v>44627.0</v>
@@ -1222,55 +1217,55 @@
         <v>44693.0</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C20" s="5">
         <v>5.0</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E20" s="5">
         <v>71.0</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G20" s="15">
         <v>44705.0</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="4"/>
       <c r="B21" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C21" s="5">
         <v>5.0</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G21" s="15">
         <v>44675.0</v>
@@ -1279,34 +1274,34 @@
         <v>44826.0</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4"/>
       <c r="B22" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C22" s="5">
         <v>5.0</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E22" s="5">
         <v>32.0</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G22" s="15">
         <v>44761.0</v>
@@ -1315,22 +1310,22 @@
         <v>44586.0</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="4"/>
       <c r="B23" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C23" s="5">
         <v>5.0</v>
@@ -1345,20 +1340,20 @@
         <v>244.0</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H23" s="7">
         <f>AVERAGEA(24.4,23.8,23.7)</f>
         <v>23.96666667</v>
       </c>
       <c r="I23" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J23" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="J23" s="8" t="s">
+      <c r="K23" s="8" t="s">
         <v>46</v>
-      </c>
-      <c r="K23" s="8" t="s">
-        <v>47</v>
       </c>
       <c r="L23" s="12">
         <v>44660.0</v>
@@ -1367,7 +1362,7 @@
     <row r="24">
       <c r="A24" s="4"/>
       <c r="B24" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C24" s="5">
         <v>5.0</v>
@@ -1382,29 +1377,29 @@
         <v>270.0</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H24" s="7">
         <f>AVERAGEA(23.5,23.6,23.4)</f>
         <v>23.5</v>
       </c>
       <c r="I24" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="J24" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="J24" s="8" t="s">
+      <c r="K24" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L24" s="8" t="s">
         <v>50</v>
-      </c>
-      <c r="K24" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="L24" s="8" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="4"/>
       <c r="B25" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C25" s="5">
         <v>5.0</v>
@@ -1419,17 +1414,17 @@
         <v>298.0</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H25" s="7">
         <f>AVERAGEA(24.5,29.7,25)</f>
         <v>26.4</v>
       </c>
       <c r="I25" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J25" s="8" t="s">
         <v>53</v>
-      </c>
-      <c r="J25" s="8" t="s">
-        <v>54</v>
       </c>
       <c r="K25" s="12">
         <v>44718.0</v>

--- a/Measurement Campaign.xlsx
+++ b/Measurement Campaign.xlsx
@@ -11,10 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="55">
-  <si>
-    <t>Date</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="22">
   <si>
     <t>Replication</t>
   </si>
@@ -70,122 +67,25 @@
     <t>T3</t>
   </si>
   <si>
-    <t>9.53</t>
-  </si>
-  <si>
-    <t>9.47</t>
-  </si>
-  <si>
     <t>30-45</t>
-  </si>
-  <si>
-    <t>0.77</t>
   </si>
   <si>
     <t>30-52</t>
   </si>
   <si>
-    <t>0.8067</t>
-  </si>
-  <si>
     <t>25-50</t>
   </si>
   <si>
-    <t>9.56</t>
-  </si>
-  <si>
-    <t>0.813</t>
-  </si>
-  <si>
-    <t>17.23</t>
-  </si>
-  <si>
-    <t>27.17</t>
-  </si>
-  <si>
-    <t>33.07</t>
-  </si>
-  <si>
-    <t>32.47</t>
-  </si>
-  <si>
-    <t>0.71</t>
-  </si>
-  <si>
-    <t>0.645</t>
-  </si>
-  <si>
-    <t>6.93</t>
-  </si>
-  <si>
-    <t>28.87</t>
-  </si>
-  <si>
-    <t>0.5875</t>
-  </si>
-  <si>
-    <t>6.867</t>
-  </si>
-  <si>
     <t>24.77</t>
-  </si>
-  <si>
-    <t>0.72</t>
-  </si>
-  <si>
-    <t>0.615</t>
-  </si>
-  <si>
-    <t>16.65</t>
-  </si>
-  <si>
-    <t>23.37</t>
-  </si>
-  <si>
-    <t>35.6</t>
-  </si>
-  <si>
-    <t>13.33</t>
-  </si>
-  <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>0.7367</t>
-  </si>
-  <si>
-    <t>3.65</t>
-  </si>
-  <si>
-    <t>16.53</t>
-  </si>
-  <si>
-    <t>0.763</t>
-  </si>
-  <si>
-    <t>0.743</t>
-  </si>
-  <si>
-    <t>8.92</t>
-  </si>
-  <si>
-    <t>8.73</t>
-  </si>
-  <si>
-    <t>0.63</t>
-  </si>
-  <si>
-    <t>0.7767</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd.mm"/>
-    <numFmt numFmtId="165" formatCode="d.m"/>
-    <numFmt numFmtId="166" formatCode="d-m"/>
+    <numFmt numFmtId="165" formatCode="d-m"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -200,7 +100,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -211,6 +111,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD0E0E3"/>
         <bgColor rgb="FFD0E0E3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC9DAF8"/>
+        <bgColor rgb="FFC9DAF8"/>
       </patternFill>
     </fill>
     <fill>
@@ -226,7 +132,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -242,13 +148,22 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="2" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="2" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -257,14 +172,14 @@
     <xf borderId="0" fillId="3" fontId="1" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
@@ -272,14 +187,11 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="2" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -504,41 +416,39 @@
   </cols>
   <sheetData>
     <row r="1" ht="41.25" customHeight="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2">
@@ -546,229 +456,229 @@
         <v>44644.0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="5">
         <v>5.0</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" s="6">
         <f>(16.8+15.3+16)/3</f>
         <v>16.03333333</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="6">
         <f> AVERAGEA(16.9,15,12.4)</f>
         <v>14.76666667</v>
       </c>
-      <c r="I2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>13</v>
+      <c r="I2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4"/>
       <c r="B3" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="5">
         <v>5.0</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G3" s="6">
         <f>(20.4+19.4+17.8)/3</f>
         <v>19.2</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="6">
         <f>AVERAGEA(13.4,13.1,18.4)</f>
         <v>14.96666667</v>
       </c>
-      <c r="I3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>13</v>
+      <c r="I3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4"/>
       <c r="B4" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="5">
         <v>5.0</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G4" s="6">
         <f>(8.1+8.1+9.5)/3</f>
         <v>8.566666667</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="6">
         <f>AVERAGEA(23.4,18,16.5)</f>
         <v>19.3</v>
       </c>
-      <c r="I4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>13</v>
+      <c r="I4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4"/>
-      <c r="B5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="5">
+      <c r="B5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="8">
         <v>4.0</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="8">
         <v>0.0</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="6">
+      <c r="E5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="9">
         <f>(14.1+14.7+13.9)/3</f>
         <v>14.23333333</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="10">
         <f>AVERAGEA(13.6,12.4,15)</f>
         <v>13.66666667</v>
       </c>
-      <c r="I5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>13</v>
+      <c r="I5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4"/>
-      <c r="B6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="5">
+      <c r="B6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="8">
         <v>5.0</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="8">
         <v>3.0</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="6">
+      <c r="E6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="9">
         <f>(14.7+15.5+12.6)/3</f>
         <v>14.26666667</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="10">
         <f>AVERAGEA(17,12.6,13.6)</f>
         <v>14.4</v>
       </c>
-      <c r="I6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>13</v>
+      <c r="I6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4"/>
-      <c r="B7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="5">
+      <c r="B7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="8">
         <v>5.0</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="8">
         <v>4.0</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="6">
+      <c r="E7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="9">
         <f>(11+11.2+10)/3</f>
         <v>10.73333333</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="10">
         <f>AVERAGEA(21.4,15.7,15.8)</f>
         <v>17.63333333</v>
       </c>
-      <c r="I7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>13</v>
+      <c r="I7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8">
@@ -776,223 +686,223 @@
         <v>44658.0</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="5">
         <v>5.0</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" s="5">
         <v>5.0</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G8" s="6">
         <f>(35.1+31+34)/3</f>
         <v>33.36666667</v>
       </c>
-      <c r="H8" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>13</v>
+      <c r="H8" s="12">
+        <v>9.53</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="5">
         <v>5.0</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" s="5">
         <v>5.0</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G9" s="6">
         <f>(31.9+32.2+29.3)/3</f>
         <v>31.13333333</v>
       </c>
-      <c r="H9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>13</v>
+      <c r="H9" s="12">
+        <v>9.47</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="5">
         <v>5.0</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" s="5">
         <v>5.0</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G10" s="6">
         <f>(14.9+16.7+14.5)/3</f>
         <v>15.36666667</v>
       </c>
-      <c r="H10" s="10">
-        <v>44751.0</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="L10" s="8" t="s">
-        <v>13</v>
+      <c r="H10" s="5">
+        <v>9.7</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4"/>
-      <c r="B11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="5">
+      <c r="B11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="8">
         <v>5.0</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="8">
         <v>5.0</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="13">
         <v>44839.0</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="6">
+      <c r="F11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="9">
         <f>(33.7+31.9+35.9)/3</f>
         <v>33.83333333</v>
       </c>
-      <c r="H11" s="10">
-        <v>44721.0</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="L11" s="12">
-        <v>44693.0</v>
+      <c r="H11" s="14">
+        <v>9.6</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="11">
+        <v>0.77</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="11">
+        <v>12.5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4"/>
-      <c r="B12" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="5">
+      <c r="B12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="8">
         <v>5.0</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="8">
         <v>5.0</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="13">
         <v>44811.0</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="6">
+      <c r="F12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="9">
         <f>(22.8+25.7+22.1)/3</f>
         <v>23.53333333</v>
       </c>
-      <c r="H12" s="10">
-        <v>44690.0</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="L12" s="12">
-        <v>44634.0</v>
+      <c r="H12" s="14">
+        <v>9.5</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="11">
+        <v>0.8067</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="11">
+        <v>14.3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="4"/>
-      <c r="B13" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="5">
+      <c r="B13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="8">
         <v>5.0</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="8">
         <v>4.0</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="13">
         <v>44839.0</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="6">
+      <c r="F13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="9">
         <f>(35.8+33.7+27.2)/3</f>
         <v>32.23333333</v>
       </c>
-      <c r="H13" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>28</v>
+      <c r="H13" s="15">
+        <v>9.56</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="11">
+        <v>0.813</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="11">
+        <v>17.23</v>
       </c>
     </row>
     <row r="14">
@@ -1000,221 +910,221 @@
         <v>44679.0</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" s="5">
         <v>5.0</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E14" s="5">
         <v>10.0</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="H14" s="7">
+        <v>12</v>
+      </c>
+      <c r="G14" s="12">
+        <v>27.17</v>
+      </c>
+      <c r="H14" s="6">
         <f>AVERAGEA(21,15.7,17.7)</f>
         <v>18.13333333</v>
       </c>
-      <c r="I14" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="L14" s="8" t="s">
-        <v>13</v>
+      <c r="I14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="4"/>
       <c r="B15" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="5">
         <v>5.0</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E15" s="5">
         <v>10.0</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+        <v>12</v>
+      </c>
+      <c r="G15" s="12">
+        <v>33.7</v>
+      </c>
+      <c r="H15" s="6">
         <f>AVERAGEA(22.6,18.3,15)</f>
         <v>18.63333333</v>
       </c>
-      <c r="I15" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" s="8" t="s">
-        <v>13</v>
+      <c r="I15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4"/>
       <c r="B16" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" s="5">
         <v>5.0</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E16" s="5">
         <v>10.0</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="4">
-        <v>44647.0</v>
-      </c>
-      <c r="H16" s="7">
+        <v>12</v>
+      </c>
+      <c r="G16" s="5">
+        <v>23.3</v>
+      </c>
+      <c r="H16" s="6">
         <f>AVERAGEA(18,20.4,16.7)</f>
         <v>18.36666667</v>
       </c>
-      <c r="I16" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="K16" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="L16" s="8" t="s">
-        <v>13</v>
+      <c r="I16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="4"/>
-      <c r="B17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="5">
+      <c r="B17" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="8">
         <v>5.0</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="8">
         <v>5.0</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="8">
         <v>20.0</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="8">
         <v>100.0</v>
       </c>
-      <c r="G17" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H17" s="7">
+      <c r="G17" s="16">
+        <v>32.47</v>
+      </c>
+      <c r="H17" s="10">
         <f>AVERAGEA(13.8,14.6,14.4)</f>
         <v>14.26666667</v>
       </c>
-      <c r="I17" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="K17" s="12">
-        <v>44630.0</v>
-      </c>
-      <c r="L17" s="8" t="s">
-        <v>34</v>
+      <c r="I17" s="11">
+        <v>0.71</v>
+      </c>
+      <c r="J17" s="11">
+        <v>0.645</v>
+      </c>
+      <c r="K17" s="11">
+        <v>10.3</v>
+      </c>
+      <c r="L17" s="11">
+        <v>6.93</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4"/>
-      <c r="B18" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="5">
+      <c r="B18" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="8">
         <v>5.0</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="8">
         <v>5.0</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="8">
         <v>15.0</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="8">
         <v>110.0</v>
       </c>
-      <c r="G18" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H18" s="7">
+      <c r="G18" s="16">
+        <v>28.87</v>
+      </c>
+      <c r="H18" s="10">
         <f>AVERAGEA(14.1,14.6,14.4)</f>
         <v>14.36666667</v>
       </c>
-      <c r="I18" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="K18" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="L18" s="8" t="s">
-        <v>37</v>
+      <c r="I18" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" s="11">
+        <v>0.5875</v>
+      </c>
+      <c r="K18" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L18" s="11">
+        <v>6.867</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="4"/>
-      <c r="B19" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="5">
+      <c r="B19" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="8">
         <v>5.0</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="8">
         <v>4.0</v>
       </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="5">
+      <c r="E19" s="17"/>
+      <c r="F19" s="8">
         <v>110.0</v>
       </c>
-      <c r="G19" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H19" s="7">
+      <c r="G19" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="10">
         <f>AVERAGEA(14.2,17.6,17.7)</f>
         <v>16.5</v>
       </c>
-      <c r="I19" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="L19" s="12">
-        <v>44627.0</v>
+      <c r="I19" s="11">
+        <v>0.72</v>
+      </c>
+      <c r="J19" s="11">
+        <v>0.615</v>
+      </c>
+      <c r="K19" s="11">
+        <v>16.65</v>
+      </c>
+      <c r="L19" s="11">
+        <v>7.3</v>
       </c>
     </row>
     <row r="20">
@@ -1222,3229 +1132,3229 @@
         <v>44693.0</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C20" s="5">
         <v>5.0</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E20" s="5">
         <v>71.0</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="15">
-        <v>44705.0</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="K20" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="L20" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="G20" s="5">
+        <v>24.5</v>
+      </c>
+      <c r="H20" s="12">
+        <v>23.37</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="4"/>
       <c r="B21" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C21" s="5">
         <v>5.0</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>43</v>
+        <v>12</v>
+      </c>
+      <c r="E21" s="5">
+        <v>35.6</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="15">
-        <v>44675.0</v>
-      </c>
-      <c r="H21" s="10">
-        <v>44826.0</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J21" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="L21" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="G21" s="5">
+        <v>24.4</v>
+      </c>
+      <c r="H21" s="5">
+        <v>22.9</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4"/>
       <c r="B22" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C22" s="5">
         <v>5.0</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E22" s="5">
         <v>32.0</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="15">
-        <v>44761.0</v>
-      </c>
-      <c r="H22" s="10">
-        <v>44586.0</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J22" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="K22" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="L22" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="G22" s="5">
+        <v>19.7</v>
+      </c>
+      <c r="H22" s="5">
+        <v>25.1</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="4"/>
-      <c r="B23" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="5">
+      <c r="B23" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="8">
         <v>5.0</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="8">
         <v>5.0</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="8">
         <v>130.0</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="8">
         <v>244.0</v>
       </c>
-      <c r="G23" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="H23" s="7">
+      <c r="G23" s="16">
+        <v>13.33</v>
+      </c>
+      <c r="H23" s="10">
         <f>AVERAGEA(24.4,23.8,23.7)</f>
         <v>23.96666667</v>
       </c>
-      <c r="I23" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="J23" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="K23" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="L23" s="12">
-        <v>44660.0</v>
+      <c r="I23" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="J23" s="11">
+        <v>0.7367</v>
+      </c>
+      <c r="K23" s="11">
+        <v>3.65</v>
+      </c>
+      <c r="L23" s="11">
+        <v>9.4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="4"/>
-      <c r="B24" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="5">
+      <c r="B24" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="8">
         <v>5.0</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="8">
         <v>5.0</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="8">
         <v>80.0</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="8">
         <v>270.0</v>
       </c>
-      <c r="G24" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="G24" s="16">
+        <v>16.53</v>
+      </c>
+      <c r="H24" s="10">
         <f>AVERAGEA(23.5,23.6,23.4)</f>
         <v>23.5</v>
       </c>
-      <c r="I24" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="J24" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="K24" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="L24" s="8" t="s">
-        <v>51</v>
+      <c r="I24" s="11">
+        <v>0.763</v>
+      </c>
+      <c r="J24" s="11">
+        <v>0.743</v>
+      </c>
+      <c r="K24" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L24" s="11">
+        <v>8.92</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="4"/>
-      <c r="B25" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="5">
+      <c r="B25" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="8">
         <v>5.0</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="8">
         <v>4.0</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="8">
         <v>174.0</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25" s="8">
         <v>298.0</v>
       </c>
-      <c r="G25" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="H25" s="7">
+      <c r="G25" s="16">
+        <v>8.73</v>
+      </c>
+      <c r="H25" s="10">
         <f>AVERAGEA(24.5,29.7,25)</f>
         <v>26.4</v>
       </c>
-      <c r="I25" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="J25" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="K25" s="12">
-        <v>44718.0</v>
-      </c>
-      <c r="L25" s="8">
+      <c r="I25" s="11">
+        <v>0.63</v>
+      </c>
+      <c r="J25" s="11">
+        <v>0.7767</v>
+      </c>
+      <c r="K25" s="11">
+        <v>6.6</v>
+      </c>
+      <c r="L25" s="11">
         <v>10.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="16"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="18"/>
     </row>
     <row r="27">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="16"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="18"/>
     </row>
     <row r="28">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="16"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="18"/>
     </row>
     <row r="29">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="16"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="18"/>
     </row>
     <row r="30">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="16"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="18"/>
     </row>
     <row r="31">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="16"/>
+      <c r="A31" s="17"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="18"/>
     </row>
     <row r="32">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="16"/>
+      <c r="A32" s="17"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="18"/>
     </row>
     <row r="33">
-      <c r="A33" s="14"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="16"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="18"/>
     </row>
     <row r="34">
-      <c r="A34" s="14"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="16"/>
+      <c r="A34" s="17"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="18"/>
     </row>
     <row r="35">
-      <c r="G35" s="17"/>
-      <c r="H35" s="18"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="20"/>
     </row>
     <row r="36">
-      <c r="G36" s="17"/>
-      <c r="H36" s="18"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="20"/>
     </row>
     <row r="37">
-      <c r="G37" s="17"/>
-      <c r="H37" s="18"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="20"/>
     </row>
     <row r="38">
-      <c r="G38" s="17"/>
-      <c r="H38" s="18"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="20"/>
     </row>
     <row r="39">
-      <c r="G39" s="17"/>
-      <c r="H39" s="18"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="20"/>
     </row>
     <row r="40">
-      <c r="G40" s="17"/>
-      <c r="H40" s="18"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="20"/>
     </row>
     <row r="41">
-      <c r="H41" s="18"/>
+      <c r="H41" s="20"/>
     </row>
     <row r="42">
-      <c r="H42" s="18"/>
+      <c r="H42" s="20"/>
     </row>
     <row r="43">
-      <c r="H43" s="18"/>
+      <c r="H43" s="20"/>
     </row>
     <row r="44">
-      <c r="H44" s="18"/>
+      <c r="H44" s="20"/>
     </row>
     <row r="45">
-      <c r="H45" s="18"/>
+      <c r="H45" s="20"/>
     </row>
     <row r="46">
-      <c r="H46" s="18"/>
+      <c r="H46" s="20"/>
     </row>
     <row r="47">
-      <c r="H47" s="18"/>
+      <c r="H47" s="20"/>
     </row>
     <row r="48">
-      <c r="H48" s="18"/>
+      <c r="H48" s="20"/>
     </row>
     <row r="49">
-      <c r="H49" s="18"/>
+      <c r="H49" s="20"/>
     </row>
     <row r="50">
-      <c r="H50" s="18"/>
+      <c r="H50" s="20"/>
     </row>
     <row r="51">
-      <c r="H51" s="18"/>
+      <c r="H51" s="20"/>
     </row>
     <row r="52">
-      <c r="H52" s="18"/>
+      <c r="H52" s="20"/>
     </row>
     <row r="53">
-      <c r="H53" s="18"/>
+      <c r="H53" s="20"/>
     </row>
     <row r="54">
-      <c r="H54" s="18"/>
+      <c r="H54" s="20"/>
     </row>
     <row r="55">
-      <c r="H55" s="18"/>
+      <c r="H55" s="20"/>
     </row>
     <row r="56">
-      <c r="H56" s="18"/>
+      <c r="H56" s="20"/>
     </row>
     <row r="57">
-      <c r="H57" s="18"/>
+      <c r="H57" s="20"/>
     </row>
     <row r="58">
-      <c r="H58" s="18"/>
+      <c r="H58" s="20"/>
     </row>
     <row r="59">
-      <c r="H59" s="18"/>
+      <c r="H59" s="20"/>
     </row>
     <row r="60">
-      <c r="H60" s="18"/>
+      <c r="H60" s="20"/>
     </row>
     <row r="61">
-      <c r="H61" s="18"/>
+      <c r="H61" s="20"/>
     </row>
     <row r="62">
-      <c r="H62" s="18"/>
+      <c r="H62" s="20"/>
     </row>
     <row r="63">
-      <c r="H63" s="18"/>
+      <c r="H63" s="20"/>
     </row>
     <row r="64">
-      <c r="H64" s="18"/>
+      <c r="H64" s="20"/>
     </row>
     <row r="65">
-      <c r="H65" s="18"/>
+      <c r="H65" s="20"/>
     </row>
     <row r="66">
-      <c r="H66" s="18"/>
+      <c r="H66" s="20"/>
     </row>
     <row r="67">
-      <c r="H67" s="18"/>
+      <c r="H67" s="20"/>
     </row>
     <row r="68">
-      <c r="H68" s="18"/>
+      <c r="H68" s="20"/>
     </row>
     <row r="69">
-      <c r="H69" s="18"/>
+      <c r="H69" s="20"/>
     </row>
     <row r="70">
-      <c r="H70" s="18"/>
+      <c r="H70" s="20"/>
     </row>
     <row r="71">
-      <c r="H71" s="18"/>
+      <c r="H71" s="20"/>
     </row>
     <row r="72">
-      <c r="H72" s="18"/>
+      <c r="H72" s="20"/>
     </row>
     <row r="73">
-      <c r="H73" s="18"/>
+      <c r="H73" s="20"/>
     </row>
     <row r="74">
-      <c r="H74" s="18"/>
+      <c r="H74" s="20"/>
     </row>
     <row r="75">
-      <c r="H75" s="18"/>
+      <c r="H75" s="20"/>
     </row>
     <row r="76">
-      <c r="H76" s="18"/>
+      <c r="H76" s="20"/>
     </row>
     <row r="77">
-      <c r="H77" s="18"/>
+      <c r="H77" s="20"/>
     </row>
     <row r="78">
-      <c r="H78" s="18"/>
+      <c r="H78" s="20"/>
     </row>
     <row r="79">
-      <c r="H79" s="18"/>
+      <c r="H79" s="20"/>
     </row>
     <row r="80">
-      <c r="H80" s="18"/>
+      <c r="H80" s="20"/>
     </row>
     <row r="81">
-      <c r="H81" s="18"/>
+      <c r="H81" s="20"/>
     </row>
     <row r="82">
-      <c r="H82" s="18"/>
+      <c r="H82" s="20"/>
     </row>
     <row r="83">
-      <c r="H83" s="18"/>
+      <c r="H83" s="20"/>
     </row>
     <row r="84">
-      <c r="H84" s="18"/>
+      <c r="H84" s="20"/>
     </row>
     <row r="85">
-      <c r="H85" s="18"/>
+      <c r="H85" s="20"/>
     </row>
     <row r="86">
-      <c r="H86" s="18"/>
+      <c r="H86" s="20"/>
     </row>
     <row r="87">
-      <c r="H87" s="18"/>
+      <c r="H87" s="20"/>
     </row>
     <row r="88">
-      <c r="H88" s="18"/>
+      <c r="H88" s="20"/>
     </row>
     <row r="89">
-      <c r="H89" s="18"/>
+      <c r="H89" s="20"/>
     </row>
     <row r="90">
-      <c r="H90" s="18"/>
+      <c r="H90" s="20"/>
     </row>
     <row r="91">
-      <c r="H91" s="18"/>
+      <c r="H91" s="20"/>
     </row>
     <row r="92">
-      <c r="H92" s="18"/>
+      <c r="H92" s="20"/>
     </row>
     <row r="93">
-      <c r="H93" s="18"/>
+      <c r="H93" s="20"/>
     </row>
     <row r="94">
-      <c r="H94" s="18"/>
+      <c r="H94" s="20"/>
     </row>
     <row r="95">
-      <c r="H95" s="18"/>
+      <c r="H95" s="20"/>
     </row>
     <row r="96">
-      <c r="H96" s="18"/>
+      <c r="H96" s="20"/>
     </row>
     <row r="97">
-      <c r="H97" s="18"/>
+      <c r="H97" s="20"/>
     </row>
     <row r="98">
-      <c r="H98" s="18"/>
+      <c r="H98" s="20"/>
     </row>
     <row r="99">
-      <c r="H99" s="18"/>
+      <c r="H99" s="20"/>
     </row>
     <row r="100">
-      <c r="H100" s="18"/>
+      <c r="H100" s="20"/>
     </row>
     <row r="101">
-      <c r="H101" s="18"/>
+      <c r="H101" s="20"/>
     </row>
     <row r="102">
-      <c r="H102" s="18"/>
+      <c r="H102" s="20"/>
     </row>
     <row r="103">
-      <c r="H103" s="18"/>
+      <c r="H103" s="20"/>
     </row>
     <row r="104">
-      <c r="H104" s="18"/>
+      <c r="H104" s="20"/>
     </row>
     <row r="105">
-      <c r="H105" s="18"/>
+      <c r="H105" s="20"/>
     </row>
     <row r="106">
-      <c r="H106" s="18"/>
+      <c r="H106" s="20"/>
     </row>
     <row r="107">
-      <c r="H107" s="18"/>
+      <c r="H107" s="20"/>
     </row>
     <row r="108">
-      <c r="H108" s="18"/>
+      <c r="H108" s="20"/>
     </row>
     <row r="109">
-      <c r="H109" s="18"/>
+      <c r="H109" s="20"/>
     </row>
     <row r="110">
-      <c r="H110" s="18"/>
+      <c r="H110" s="20"/>
     </row>
     <row r="111">
-      <c r="H111" s="18"/>
+      <c r="H111" s="20"/>
     </row>
     <row r="112">
-      <c r="H112" s="18"/>
+      <c r="H112" s="20"/>
     </row>
     <row r="113">
-      <c r="H113" s="18"/>
+      <c r="H113" s="20"/>
     </row>
     <row r="114">
-      <c r="H114" s="18"/>
+      <c r="H114" s="20"/>
     </row>
     <row r="115">
-      <c r="H115" s="18"/>
+      <c r="H115" s="20"/>
     </row>
     <row r="116">
-      <c r="H116" s="18"/>
+      <c r="H116" s="20"/>
     </row>
     <row r="117">
-      <c r="H117" s="18"/>
+      <c r="H117" s="20"/>
     </row>
     <row r="118">
-      <c r="H118" s="18"/>
+      <c r="H118" s="20"/>
     </row>
     <row r="119">
-      <c r="H119" s="18"/>
+      <c r="H119" s="20"/>
     </row>
     <row r="120">
-      <c r="H120" s="18"/>
+      <c r="H120" s="20"/>
     </row>
     <row r="121">
-      <c r="H121" s="18"/>
+      <c r="H121" s="20"/>
     </row>
     <row r="122">
-      <c r="H122" s="18"/>
+      <c r="H122" s="20"/>
     </row>
     <row r="123">
-      <c r="H123" s="18"/>
+      <c r="H123" s="20"/>
     </row>
     <row r="124">
-      <c r="H124" s="18"/>
+      <c r="H124" s="20"/>
     </row>
     <row r="125">
-      <c r="H125" s="18"/>
+      <c r="H125" s="20"/>
     </row>
     <row r="126">
-      <c r="H126" s="18"/>
+      <c r="H126" s="20"/>
     </row>
     <row r="127">
-      <c r="H127" s="18"/>
+      <c r="H127" s="20"/>
     </row>
     <row r="128">
-      <c r="H128" s="18"/>
+      <c r="H128" s="20"/>
     </row>
     <row r="129">
-      <c r="H129" s="18"/>
+      <c r="H129" s="20"/>
     </row>
     <row r="130">
-      <c r="H130" s="18"/>
+      <c r="H130" s="20"/>
     </row>
     <row r="131">
-      <c r="H131" s="18"/>
+      <c r="H131" s="20"/>
     </row>
     <row r="132">
-      <c r="H132" s="18"/>
+      <c r="H132" s="20"/>
     </row>
     <row r="133">
-      <c r="H133" s="18"/>
+      <c r="H133" s="20"/>
     </row>
     <row r="134">
-      <c r="H134" s="18"/>
+      <c r="H134" s="20"/>
     </row>
     <row r="135">
-      <c r="H135" s="18"/>
+      <c r="H135" s="20"/>
     </row>
     <row r="136">
-      <c r="H136" s="18"/>
+      <c r="H136" s="20"/>
     </row>
     <row r="137">
-      <c r="H137" s="18"/>
+      <c r="H137" s="20"/>
     </row>
     <row r="138">
-      <c r="H138" s="18"/>
+      <c r="H138" s="20"/>
     </row>
     <row r="139">
-      <c r="H139" s="18"/>
+      <c r="H139" s="20"/>
     </row>
     <row r="140">
-      <c r="H140" s="18"/>
+      <c r="H140" s="20"/>
     </row>
     <row r="141">
-      <c r="H141" s="18"/>
+      <c r="H141" s="20"/>
     </row>
     <row r="142">
-      <c r="H142" s="18"/>
+      <c r="H142" s="20"/>
     </row>
     <row r="143">
-      <c r="H143" s="18"/>
+      <c r="H143" s="20"/>
     </row>
     <row r="144">
-      <c r="H144" s="18"/>
+      <c r="H144" s="20"/>
     </row>
     <row r="145">
-      <c r="H145" s="18"/>
+      <c r="H145" s="20"/>
     </row>
     <row r="146">
-      <c r="H146" s="18"/>
+      <c r="H146" s="20"/>
     </row>
     <row r="147">
-      <c r="H147" s="18"/>
+      <c r="H147" s="20"/>
     </row>
     <row r="148">
-      <c r="H148" s="18"/>
+      <c r="H148" s="20"/>
     </row>
     <row r="149">
-      <c r="H149" s="18"/>
+      <c r="H149" s="20"/>
     </row>
     <row r="150">
-      <c r="H150" s="18"/>
+      <c r="H150" s="20"/>
     </row>
     <row r="151">
-      <c r="H151" s="18"/>
+      <c r="H151" s="20"/>
     </row>
     <row r="152">
-      <c r="H152" s="18"/>
+      <c r="H152" s="20"/>
     </row>
     <row r="153">
-      <c r="H153" s="18"/>
+      <c r="H153" s="20"/>
     </row>
     <row r="154">
-      <c r="H154" s="18"/>
+      <c r="H154" s="20"/>
     </row>
     <row r="155">
-      <c r="H155" s="18"/>
+      <c r="H155" s="20"/>
     </row>
     <row r="156">
-      <c r="H156" s="18"/>
+      <c r="H156" s="20"/>
     </row>
     <row r="157">
-      <c r="H157" s="18"/>
+      <c r="H157" s="20"/>
     </row>
     <row r="158">
-      <c r="H158" s="18"/>
+      <c r="H158" s="20"/>
     </row>
     <row r="159">
-      <c r="H159" s="18"/>
+      <c r="H159" s="20"/>
     </row>
     <row r="160">
-      <c r="H160" s="18"/>
+      <c r="H160" s="20"/>
     </row>
     <row r="161">
-      <c r="H161" s="18"/>
+      <c r="H161" s="20"/>
     </row>
     <row r="162">
-      <c r="H162" s="18"/>
+      <c r="H162" s="20"/>
     </row>
     <row r="163">
-      <c r="H163" s="18"/>
+      <c r="H163" s="20"/>
     </row>
     <row r="164">
-      <c r="H164" s="18"/>
+      <c r="H164" s="20"/>
     </row>
     <row r="165">
-      <c r="H165" s="18"/>
+      <c r="H165" s="20"/>
     </row>
     <row r="166">
-      <c r="H166" s="18"/>
+      <c r="H166" s="20"/>
     </row>
     <row r="167">
-      <c r="H167" s="18"/>
+      <c r="H167" s="20"/>
     </row>
     <row r="168">
-      <c r="H168" s="18"/>
+      <c r="H168" s="20"/>
     </row>
     <row r="169">
-      <c r="H169" s="18"/>
+      <c r="H169" s="20"/>
     </row>
     <row r="170">
-      <c r="H170" s="18"/>
+      <c r="H170" s="20"/>
     </row>
     <row r="171">
-      <c r="H171" s="18"/>
+      <c r="H171" s="20"/>
     </row>
     <row r="172">
-      <c r="H172" s="18"/>
+      <c r="H172" s="20"/>
     </row>
     <row r="173">
-      <c r="H173" s="18"/>
+      <c r="H173" s="20"/>
     </row>
     <row r="174">
-      <c r="H174" s="18"/>
+      <c r="H174" s="20"/>
     </row>
     <row r="175">
-      <c r="H175" s="18"/>
+      <c r="H175" s="20"/>
     </row>
     <row r="176">
-      <c r="H176" s="18"/>
+      <c r="H176" s="20"/>
     </row>
     <row r="177">
-      <c r="H177" s="18"/>
+      <c r="H177" s="20"/>
     </row>
     <row r="178">
-      <c r="H178" s="18"/>
+      <c r="H178" s="20"/>
     </row>
     <row r="179">
-      <c r="H179" s="18"/>
+      <c r="H179" s="20"/>
     </row>
     <row r="180">
-      <c r="H180" s="18"/>
+      <c r="H180" s="20"/>
     </row>
     <row r="181">
-      <c r="H181" s="18"/>
+      <c r="H181" s="20"/>
     </row>
     <row r="182">
-      <c r="H182" s="18"/>
+      <c r="H182" s="20"/>
     </row>
     <row r="183">
-      <c r="H183" s="18"/>
+      <c r="H183" s="20"/>
     </row>
     <row r="184">
-      <c r="H184" s="18"/>
+      <c r="H184" s="20"/>
     </row>
     <row r="185">
-      <c r="H185" s="18"/>
+      <c r="H185" s="20"/>
     </row>
     <row r="186">
-      <c r="H186" s="18"/>
+      <c r="H186" s="20"/>
     </row>
     <row r="187">
-      <c r="H187" s="18"/>
+      <c r="H187" s="20"/>
     </row>
     <row r="188">
-      <c r="H188" s="18"/>
+      <c r="H188" s="20"/>
     </row>
     <row r="189">
-      <c r="H189" s="18"/>
+      <c r="H189" s="20"/>
     </row>
     <row r="190">
-      <c r="H190" s="18"/>
+      <c r="H190" s="20"/>
     </row>
     <row r="191">
-      <c r="H191" s="18"/>
+      <c r="H191" s="20"/>
     </row>
     <row r="192">
-      <c r="H192" s="18"/>
+      <c r="H192" s="20"/>
     </row>
     <row r="193">
-      <c r="H193" s="18"/>
+      <c r="H193" s="20"/>
     </row>
     <row r="194">
-      <c r="H194" s="18"/>
+      <c r="H194" s="20"/>
     </row>
     <row r="195">
-      <c r="H195" s="18"/>
+      <c r="H195" s="20"/>
     </row>
     <row r="196">
-      <c r="H196" s="18"/>
+      <c r="H196" s="20"/>
     </row>
     <row r="197">
-      <c r="H197" s="18"/>
+      <c r="H197" s="20"/>
     </row>
     <row r="198">
-      <c r="H198" s="18"/>
+      <c r="H198" s="20"/>
     </row>
     <row r="199">
-      <c r="H199" s="18"/>
+      <c r="H199" s="20"/>
     </row>
     <row r="200">
-      <c r="H200" s="18"/>
+      <c r="H200" s="20"/>
     </row>
     <row r="201">
-      <c r="H201" s="18"/>
+      <c r="H201" s="20"/>
     </row>
     <row r="202">
-      <c r="H202" s="18"/>
+      <c r="H202" s="20"/>
     </row>
     <row r="203">
-      <c r="H203" s="18"/>
+      <c r="H203" s="20"/>
     </row>
     <row r="204">
-      <c r="H204" s="18"/>
+      <c r="H204" s="20"/>
     </row>
     <row r="205">
-      <c r="H205" s="18"/>
+      <c r="H205" s="20"/>
     </row>
     <row r="206">
-      <c r="H206" s="18"/>
+      <c r="H206" s="20"/>
     </row>
     <row r="207">
-      <c r="H207" s="18"/>
+      <c r="H207" s="20"/>
     </row>
     <row r="208">
-      <c r="H208" s="18"/>
+      <c r="H208" s="20"/>
     </row>
     <row r="209">
-      <c r="H209" s="18"/>
+      <c r="H209" s="20"/>
     </row>
     <row r="210">
-      <c r="H210" s="18"/>
+      <c r="H210" s="20"/>
     </row>
     <row r="211">
-      <c r="H211" s="18"/>
+      <c r="H211" s="20"/>
     </row>
     <row r="212">
-      <c r="H212" s="18"/>
+      <c r="H212" s="20"/>
     </row>
     <row r="213">
-      <c r="H213" s="18"/>
+      <c r="H213" s="20"/>
     </row>
     <row r="214">
-      <c r="H214" s="18"/>
+      <c r="H214" s="20"/>
     </row>
     <row r="215">
-      <c r="H215" s="18"/>
+      <c r="H215" s="20"/>
     </row>
     <row r="216">
-      <c r="H216" s="18"/>
+      <c r="H216" s="20"/>
     </row>
     <row r="217">
-      <c r="H217" s="18"/>
+      <c r="H217" s="20"/>
     </row>
     <row r="218">
-      <c r="H218" s="18"/>
+      <c r="H218" s="20"/>
     </row>
     <row r="219">
-      <c r="H219" s="18"/>
+      <c r="H219" s="20"/>
     </row>
     <row r="220">
-      <c r="H220" s="18"/>
+      <c r="H220" s="20"/>
     </row>
     <row r="221">
-      <c r="H221" s="18"/>
+      <c r="H221" s="20"/>
     </row>
     <row r="222">
-      <c r="H222" s="18"/>
+      <c r="H222" s="20"/>
     </row>
     <row r="223">
-      <c r="H223" s="18"/>
+      <c r="H223" s="20"/>
     </row>
     <row r="224">
-      <c r="H224" s="18"/>
+      <c r="H224" s="20"/>
     </row>
     <row r="225">
-      <c r="H225" s="18"/>
+      <c r="H225" s="20"/>
     </row>
     <row r="226">
-      <c r="H226" s="18"/>
+      <c r="H226" s="20"/>
     </row>
     <row r="227">
-      <c r="H227" s="18"/>
+      <c r="H227" s="20"/>
     </row>
     <row r="228">
-      <c r="H228" s="18"/>
+      <c r="H228" s="20"/>
     </row>
     <row r="229">
-      <c r="H229" s="18"/>
+      <c r="H229" s="20"/>
     </row>
     <row r="230">
-      <c r="H230" s="18"/>
+      <c r="H230" s="20"/>
     </row>
     <row r="231">
-      <c r="H231" s="18"/>
+      <c r="H231" s="20"/>
     </row>
     <row r="232">
-      <c r="H232" s="18"/>
+      <c r="H232" s="20"/>
     </row>
     <row r="233">
-      <c r="H233" s="18"/>
+      <c r="H233" s="20"/>
     </row>
     <row r="234">
-      <c r="H234" s="18"/>
+      <c r="H234" s="20"/>
     </row>
     <row r="235">
-      <c r="H235" s="18"/>
+      <c r="H235" s="20"/>
     </row>
     <row r="236">
-      <c r="H236" s="18"/>
+      <c r="H236" s="20"/>
     </row>
     <row r="237">
-      <c r="H237" s="18"/>
+      <c r="H237" s="20"/>
     </row>
     <row r="238">
-      <c r="H238" s="18"/>
+      <c r="H238" s="20"/>
     </row>
     <row r="239">
-      <c r="H239" s="18"/>
+      <c r="H239" s="20"/>
     </row>
     <row r="240">
-      <c r="H240" s="18"/>
+      <c r="H240" s="20"/>
     </row>
     <row r="241">
-      <c r="H241" s="18"/>
+      <c r="H241" s="20"/>
     </row>
     <row r="242">
-      <c r="H242" s="18"/>
+      <c r="H242" s="20"/>
     </row>
     <row r="243">
-      <c r="H243" s="18"/>
+      <c r="H243" s="20"/>
     </row>
     <row r="244">
-      <c r="H244" s="18"/>
+      <c r="H244" s="20"/>
     </row>
     <row r="245">
-      <c r="H245" s="18"/>
+      <c r="H245" s="20"/>
     </row>
     <row r="246">
-      <c r="H246" s="18"/>
+      <c r="H246" s="20"/>
     </row>
     <row r="247">
-      <c r="H247" s="18"/>
+      <c r="H247" s="20"/>
     </row>
     <row r="248">
-      <c r="H248" s="18"/>
+      <c r="H248" s="20"/>
     </row>
     <row r="249">
-      <c r="H249" s="18"/>
+      <c r="H249" s="20"/>
     </row>
     <row r="250">
-      <c r="H250" s="18"/>
+      <c r="H250" s="20"/>
     </row>
     <row r="251">
-      <c r="H251" s="18"/>
+      <c r="H251" s="20"/>
     </row>
     <row r="252">
-      <c r="H252" s="18"/>
+      <c r="H252" s="20"/>
     </row>
     <row r="253">
-      <c r="H253" s="18"/>
+      <c r="H253" s="20"/>
     </row>
     <row r="254">
-      <c r="H254" s="18"/>
+      <c r="H254" s="20"/>
     </row>
     <row r="255">
-      <c r="H255" s="18"/>
+      <c r="H255" s="20"/>
     </row>
     <row r="256">
-      <c r="H256" s="18"/>
+      <c r="H256" s="20"/>
     </row>
     <row r="257">
-      <c r="H257" s="18"/>
+      <c r="H257" s="20"/>
     </row>
     <row r="258">
-      <c r="H258" s="18"/>
+      <c r="H258" s="20"/>
     </row>
     <row r="259">
-      <c r="H259" s="18"/>
+      <c r="H259" s="20"/>
     </row>
     <row r="260">
-      <c r="H260" s="18"/>
+      <c r="H260" s="20"/>
     </row>
     <row r="261">
-      <c r="H261" s="18"/>
+      <c r="H261" s="20"/>
     </row>
     <row r="262">
-      <c r="H262" s="18"/>
+      <c r="H262" s="20"/>
     </row>
     <row r="263">
-      <c r="H263" s="18"/>
+      <c r="H263" s="20"/>
     </row>
     <row r="264">
-      <c r="H264" s="18"/>
+      <c r="H264" s="20"/>
     </row>
     <row r="265">
-      <c r="H265" s="18"/>
+      <c r="H265" s="20"/>
     </row>
     <row r="266">
-      <c r="H266" s="18"/>
+      <c r="H266" s="20"/>
     </row>
     <row r="267">
-      <c r="H267" s="18"/>
+      <c r="H267" s="20"/>
     </row>
     <row r="268">
-      <c r="H268" s="18"/>
+      <c r="H268" s="20"/>
     </row>
     <row r="269">
-      <c r="H269" s="18"/>
+      <c r="H269" s="20"/>
     </row>
     <row r="270">
-      <c r="H270" s="18"/>
+      <c r="H270" s="20"/>
     </row>
     <row r="271">
-      <c r="H271" s="18"/>
+      <c r="H271" s="20"/>
     </row>
     <row r="272">
-      <c r="H272" s="18"/>
+      <c r="H272" s="20"/>
     </row>
     <row r="273">
-      <c r="H273" s="18"/>
+      <c r="H273" s="20"/>
     </row>
     <row r="274">
-      <c r="H274" s="18"/>
+      <c r="H274" s="20"/>
     </row>
     <row r="275">
-      <c r="H275" s="18"/>
+      <c r="H275" s="20"/>
     </row>
     <row r="276">
-      <c r="H276" s="18"/>
+      <c r="H276" s="20"/>
     </row>
     <row r="277">
-      <c r="H277" s="18"/>
+      <c r="H277" s="20"/>
     </row>
     <row r="278">
-      <c r="H278" s="18"/>
+      <c r="H278" s="20"/>
     </row>
     <row r="279">
-      <c r="H279" s="18"/>
+      <c r="H279" s="20"/>
     </row>
     <row r="280">
-      <c r="H280" s="18"/>
+      <c r="H280" s="20"/>
     </row>
     <row r="281">
-      <c r="H281" s="18"/>
+      <c r="H281" s="20"/>
     </row>
     <row r="282">
-      <c r="H282" s="18"/>
+      <c r="H282" s="20"/>
     </row>
     <row r="283">
-      <c r="H283" s="18"/>
+      <c r="H283" s="20"/>
     </row>
     <row r="284">
-      <c r="H284" s="18"/>
+      <c r="H284" s="20"/>
     </row>
     <row r="285">
-      <c r="H285" s="18"/>
+      <c r="H285" s="20"/>
     </row>
     <row r="286">
-      <c r="H286" s="18"/>
+      <c r="H286" s="20"/>
     </row>
     <row r="287">
-      <c r="H287" s="18"/>
+      <c r="H287" s="20"/>
     </row>
     <row r="288">
-      <c r="H288" s="18"/>
+      <c r="H288" s="20"/>
     </row>
     <row r="289">
-      <c r="H289" s="18"/>
+      <c r="H289" s="20"/>
     </row>
     <row r="290">
-      <c r="H290" s="18"/>
+      <c r="H290" s="20"/>
     </row>
     <row r="291">
-      <c r="H291" s="18"/>
+      <c r="H291" s="20"/>
     </row>
     <row r="292">
-      <c r="H292" s="18"/>
+      <c r="H292" s="20"/>
     </row>
     <row r="293">
-      <c r="H293" s="18"/>
+      <c r="H293" s="20"/>
     </row>
     <row r="294">
-      <c r="H294" s="18"/>
+      <c r="H294" s="20"/>
     </row>
     <row r="295">
-      <c r="H295" s="18"/>
+      <c r="H295" s="20"/>
     </row>
     <row r="296">
-      <c r="H296" s="18"/>
+      <c r="H296" s="20"/>
     </row>
     <row r="297">
-      <c r="H297" s="18"/>
+      <c r="H297" s="20"/>
     </row>
     <row r="298">
-      <c r="H298" s="18"/>
+      <c r="H298" s="20"/>
     </row>
     <row r="299">
-      <c r="H299" s="18"/>
+      <c r="H299" s="20"/>
     </row>
     <row r="300">
-      <c r="H300" s="18"/>
+      <c r="H300" s="20"/>
     </row>
     <row r="301">
-      <c r="H301" s="18"/>
+      <c r="H301" s="20"/>
     </row>
     <row r="302">
-      <c r="H302" s="18"/>
+      <c r="H302" s="20"/>
     </row>
     <row r="303">
-      <c r="H303" s="18"/>
+      <c r="H303" s="20"/>
     </row>
     <row r="304">
-      <c r="H304" s="18"/>
+      <c r="H304" s="20"/>
     </row>
     <row r="305">
-      <c r="H305" s="18"/>
+      <c r="H305" s="20"/>
     </row>
     <row r="306">
-      <c r="H306" s="18"/>
+      <c r="H306" s="20"/>
     </row>
     <row r="307">
-      <c r="H307" s="18"/>
+      <c r="H307" s="20"/>
     </row>
     <row r="308">
-      <c r="H308" s="18"/>
+      <c r="H308" s="20"/>
     </row>
     <row r="309">
-      <c r="H309" s="18"/>
+      <c r="H309" s="20"/>
     </row>
     <row r="310">
-      <c r="H310" s="18"/>
+      <c r="H310" s="20"/>
     </row>
     <row r="311">
-      <c r="H311" s="18"/>
+      <c r="H311" s="20"/>
     </row>
     <row r="312">
-      <c r="H312" s="18"/>
+      <c r="H312" s="20"/>
     </row>
     <row r="313">
-      <c r="H313" s="18"/>
+      <c r="H313" s="20"/>
     </row>
     <row r="314">
-      <c r="H314" s="18"/>
+      <c r="H314" s="20"/>
     </row>
     <row r="315">
-      <c r="H315" s="18"/>
+      <c r="H315" s="20"/>
     </row>
     <row r="316">
-      <c r="H316" s="18"/>
+      <c r="H316" s="20"/>
     </row>
     <row r="317">
-      <c r="H317" s="18"/>
+      <c r="H317" s="20"/>
     </row>
     <row r="318">
-      <c r="H318" s="18"/>
+      <c r="H318" s="20"/>
     </row>
     <row r="319">
-      <c r="H319" s="18"/>
+      <c r="H319" s="20"/>
     </row>
     <row r="320">
-      <c r="H320" s="18"/>
+      <c r="H320" s="20"/>
     </row>
     <row r="321">
-      <c r="H321" s="18"/>
+      <c r="H321" s="20"/>
     </row>
     <row r="322">
-      <c r="H322" s="18"/>
+      <c r="H322" s="20"/>
     </row>
     <row r="323">
-      <c r="H323" s="18"/>
+      <c r="H323" s="20"/>
     </row>
     <row r="324">
-      <c r="H324" s="18"/>
+      <c r="H324" s="20"/>
     </row>
     <row r="325">
-      <c r="H325" s="18"/>
+      <c r="H325" s="20"/>
     </row>
     <row r="326">
-      <c r="H326" s="18"/>
+      <c r="H326" s="20"/>
     </row>
     <row r="327">
-      <c r="H327" s="18"/>
+      <c r="H327" s="20"/>
     </row>
     <row r="328">
-      <c r="H328" s="18"/>
+      <c r="H328" s="20"/>
     </row>
     <row r="329">
-      <c r="H329" s="18"/>
+      <c r="H329" s="20"/>
     </row>
     <row r="330">
-      <c r="H330" s="18"/>
+      <c r="H330" s="20"/>
     </row>
     <row r="331">
-      <c r="H331" s="18"/>
+      <c r="H331" s="20"/>
     </row>
     <row r="332">
-      <c r="H332" s="18"/>
+      <c r="H332" s="20"/>
     </row>
     <row r="333">
-      <c r="H333" s="18"/>
+      <c r="H333" s="20"/>
     </row>
     <row r="334">
-      <c r="H334" s="18"/>
+      <c r="H334" s="20"/>
     </row>
     <row r="335">
-      <c r="H335" s="18"/>
+      <c r="H335" s="20"/>
     </row>
     <row r="336">
-      <c r="H336" s="18"/>
+      <c r="H336" s="20"/>
     </row>
     <row r="337">
-      <c r="H337" s="18"/>
+      <c r="H337" s="20"/>
     </row>
     <row r="338">
-      <c r="H338" s="18"/>
+      <c r="H338" s="20"/>
     </row>
     <row r="339">
-      <c r="H339" s="18"/>
+      <c r="H339" s="20"/>
     </row>
     <row r="340">
-      <c r="H340" s="18"/>
+      <c r="H340" s="20"/>
     </row>
     <row r="341">
-      <c r="H341" s="18"/>
+      <c r="H341" s="20"/>
     </row>
     <row r="342">
-      <c r="H342" s="18"/>
+      <c r="H342" s="20"/>
     </row>
     <row r="343">
-      <c r="H343" s="18"/>
+      <c r="H343" s="20"/>
     </row>
     <row r="344">
-      <c r="H344" s="18"/>
+      <c r="H344" s="20"/>
     </row>
     <row r="345">
-      <c r="H345" s="18"/>
+      <c r="H345" s="20"/>
     </row>
     <row r="346">
-      <c r="H346" s="18"/>
+      <c r="H346" s="20"/>
     </row>
     <row r="347">
-      <c r="H347" s="18"/>
+      <c r="H347" s="20"/>
     </row>
     <row r="348">
-      <c r="H348" s="18"/>
+      <c r="H348" s="20"/>
     </row>
     <row r="349">
-      <c r="H349" s="18"/>
+      <c r="H349" s="20"/>
     </row>
     <row r="350">
-      <c r="H350" s="18"/>
+      <c r="H350" s="20"/>
     </row>
     <row r="351">
-      <c r="H351" s="18"/>
+      <c r="H351" s="20"/>
     </row>
     <row r="352">
-      <c r="H352" s="18"/>
+      <c r="H352" s="20"/>
     </row>
     <row r="353">
-      <c r="H353" s="18"/>
+      <c r="H353" s="20"/>
     </row>
     <row r="354">
-      <c r="H354" s="18"/>
+      <c r="H354" s="20"/>
     </row>
     <row r="355">
-      <c r="H355" s="18"/>
+      <c r="H355" s="20"/>
     </row>
     <row r="356">
-      <c r="H356" s="18"/>
+      <c r="H356" s="20"/>
     </row>
     <row r="357">
-      <c r="H357" s="18"/>
+      <c r="H357" s="20"/>
     </row>
     <row r="358">
-      <c r="H358" s="18"/>
+      <c r="H358" s="20"/>
     </row>
     <row r="359">
-      <c r="H359" s="18"/>
+      <c r="H359" s="20"/>
     </row>
     <row r="360">
-      <c r="H360" s="18"/>
+      <c r="H360" s="20"/>
     </row>
     <row r="361">
-      <c r="H361" s="18"/>
+      <c r="H361" s="20"/>
     </row>
     <row r="362">
-      <c r="H362" s="18"/>
+      <c r="H362" s="20"/>
     </row>
     <row r="363">
-      <c r="H363" s="18"/>
+      <c r="H363" s="20"/>
     </row>
     <row r="364">
-      <c r="H364" s="18"/>
+      <c r="H364" s="20"/>
     </row>
     <row r="365">
-      <c r="H365" s="18"/>
+      <c r="H365" s="20"/>
     </row>
     <row r="366">
-      <c r="H366" s="18"/>
+      <c r="H366" s="20"/>
     </row>
     <row r="367">
-      <c r="H367" s="18"/>
+      <c r="H367" s="20"/>
     </row>
     <row r="368">
-      <c r="H368" s="18"/>
+      <c r="H368" s="20"/>
     </row>
     <row r="369">
-      <c r="H369" s="18"/>
+      <c r="H369" s="20"/>
     </row>
     <row r="370">
-      <c r="H370" s="18"/>
+      <c r="H370" s="20"/>
     </row>
     <row r="371">
-      <c r="H371" s="18"/>
+      <c r="H371" s="20"/>
     </row>
     <row r="372">
-      <c r="H372" s="18"/>
+      <c r="H372" s="20"/>
     </row>
     <row r="373">
-      <c r="H373" s="18"/>
+      <c r="H373" s="20"/>
     </row>
     <row r="374">
-      <c r="H374" s="18"/>
+      <c r="H374" s="20"/>
     </row>
     <row r="375">
-      <c r="H375" s="18"/>
+      <c r="H375" s="20"/>
     </row>
     <row r="376">
-      <c r="H376" s="18"/>
+      <c r="H376" s="20"/>
     </row>
     <row r="377">
-      <c r="H377" s="18"/>
+      <c r="H377" s="20"/>
     </row>
     <row r="378">
-      <c r="H378" s="18"/>
+      <c r="H378" s="20"/>
     </row>
     <row r="379">
-      <c r="H379" s="18"/>
+      <c r="H379" s="20"/>
     </row>
     <row r="380">
-      <c r="H380" s="18"/>
+      <c r="H380" s="20"/>
     </row>
     <row r="381">
-      <c r="H381" s="18"/>
+      <c r="H381" s="20"/>
     </row>
     <row r="382">
-      <c r="H382" s="18"/>
+      <c r="H382" s="20"/>
     </row>
     <row r="383">
-      <c r="H383" s="18"/>
+      <c r="H383" s="20"/>
     </row>
     <row r="384">
-      <c r="H384" s="18"/>
+      <c r="H384" s="20"/>
     </row>
     <row r="385">
-      <c r="H385" s="18"/>
+      <c r="H385" s="20"/>
     </row>
     <row r="386">
-      <c r="H386" s="18"/>
+      <c r="H386" s="20"/>
     </row>
     <row r="387">
-      <c r="H387" s="18"/>
+      <c r="H387" s="20"/>
     </row>
     <row r="388">
-      <c r="H388" s="18"/>
+      <c r="H388" s="20"/>
     </row>
     <row r="389">
-      <c r="H389" s="18"/>
+      <c r="H389" s="20"/>
     </row>
     <row r="390">
-      <c r="H390" s="18"/>
+      <c r="H390" s="20"/>
     </row>
     <row r="391">
-      <c r="H391" s="18"/>
+      <c r="H391" s="20"/>
     </row>
     <row r="392">
-      <c r="H392" s="18"/>
+      <c r="H392" s="20"/>
     </row>
     <row r="393">
-      <c r="H393" s="18"/>
+      <c r="H393" s="20"/>
     </row>
     <row r="394">
-      <c r="H394" s="18"/>
+      <c r="H394" s="20"/>
     </row>
     <row r="395">
-      <c r="H395" s="18"/>
+      <c r="H395" s="20"/>
     </row>
     <row r="396">
-      <c r="H396" s="18"/>
+      <c r="H396" s="20"/>
     </row>
     <row r="397">
-      <c r="H397" s="18"/>
+      <c r="H397" s="20"/>
     </row>
     <row r="398">
-      <c r="H398" s="18"/>
+      <c r="H398" s="20"/>
     </row>
     <row r="399">
-      <c r="H399" s="18"/>
+      <c r="H399" s="20"/>
     </row>
     <row r="400">
-      <c r="H400" s="18"/>
+      <c r="H400" s="20"/>
     </row>
     <row r="401">
-      <c r="H401" s="18"/>
+      <c r="H401" s="20"/>
     </row>
     <row r="402">
-      <c r="H402" s="18"/>
+      <c r="H402" s="20"/>
     </row>
     <row r="403">
-      <c r="H403" s="18"/>
+      <c r="H403" s="20"/>
     </row>
     <row r="404">
-      <c r="H404" s="18"/>
+      <c r="H404" s="20"/>
     </row>
     <row r="405">
-      <c r="H405" s="18"/>
+      <c r="H405" s="20"/>
     </row>
     <row r="406">
-      <c r="H406" s="18"/>
+      <c r="H406" s="20"/>
     </row>
     <row r="407">
-      <c r="H407" s="18"/>
+      <c r="H407" s="20"/>
     </row>
     <row r="408">
-      <c r="H408" s="18"/>
+      <c r="H408" s="20"/>
     </row>
     <row r="409">
-      <c r="H409" s="18"/>
+      <c r="H409" s="20"/>
     </row>
     <row r="410">
-      <c r="H410" s="18"/>
+      <c r="H410" s="20"/>
     </row>
     <row r="411">
-      <c r="H411" s="18"/>
+      <c r="H411" s="20"/>
     </row>
     <row r="412">
-      <c r="H412" s="18"/>
+      <c r="H412" s="20"/>
     </row>
     <row r="413">
-      <c r="H413" s="18"/>
+      <c r="H413" s="20"/>
     </row>
     <row r="414">
-      <c r="H414" s="18"/>
+      <c r="H414" s="20"/>
     </row>
     <row r="415">
-      <c r="H415" s="18"/>
+      <c r="H415" s="20"/>
     </row>
     <row r="416">
-      <c r="H416" s="18"/>
+      <c r="H416" s="20"/>
     </row>
     <row r="417">
-      <c r="H417" s="18"/>
+      <c r="H417" s="20"/>
     </row>
     <row r="418">
-      <c r="H418" s="18"/>
+      <c r="H418" s="20"/>
     </row>
     <row r="419">
-      <c r="H419" s="18"/>
+      <c r="H419" s="20"/>
     </row>
     <row r="420">
-      <c r="H420" s="18"/>
+      <c r="H420" s="20"/>
     </row>
     <row r="421">
-      <c r="H421" s="18"/>
+      <c r="H421" s="20"/>
     </row>
     <row r="422">
-      <c r="H422" s="18"/>
+      <c r="H422" s="20"/>
     </row>
     <row r="423">
-      <c r="H423" s="18"/>
+      <c r="H423" s="20"/>
     </row>
     <row r="424">
-      <c r="H424" s="18"/>
+      <c r="H424" s="20"/>
     </row>
     <row r="425">
-      <c r="H425" s="18"/>
+      <c r="H425" s="20"/>
     </row>
     <row r="426">
-      <c r="H426" s="18"/>
+      <c r="H426" s="20"/>
     </row>
     <row r="427">
-      <c r="H427" s="18"/>
+      <c r="H427" s="20"/>
     </row>
     <row r="428">
-      <c r="H428" s="18"/>
+      <c r="H428" s="20"/>
     </row>
     <row r="429">
-      <c r="H429" s="18"/>
+      <c r="H429" s="20"/>
     </row>
     <row r="430">
-      <c r="H430" s="18"/>
+      <c r="H430" s="20"/>
     </row>
     <row r="431">
-      <c r="H431" s="18"/>
+      <c r="H431" s="20"/>
     </row>
     <row r="432">
-      <c r="H432" s="18"/>
+      <c r="H432" s="20"/>
     </row>
     <row r="433">
-      <c r="H433" s="18"/>
+      <c r="H433" s="20"/>
     </row>
     <row r="434">
-      <c r="H434" s="18"/>
+      <c r="H434" s="20"/>
     </row>
     <row r="435">
-      <c r="H435" s="18"/>
+      <c r="H435" s="20"/>
     </row>
     <row r="436">
-      <c r="H436" s="18"/>
+      <c r="H436" s="20"/>
     </row>
     <row r="437">
-      <c r="H437" s="18"/>
+      <c r="H437" s="20"/>
     </row>
     <row r="438">
-      <c r="H438" s="18"/>
+      <c r="H438" s="20"/>
     </row>
     <row r="439">
-      <c r="H439" s="18"/>
+      <c r="H439" s="20"/>
     </row>
     <row r="440">
-      <c r="H440" s="18"/>
+      <c r="H440" s="20"/>
     </row>
     <row r="441">
-      <c r="H441" s="18"/>
+      <c r="H441" s="20"/>
     </row>
     <row r="442">
-      <c r="H442" s="18"/>
+      <c r="H442" s="20"/>
     </row>
     <row r="443">
-      <c r="H443" s="18"/>
+      <c r="H443" s="20"/>
     </row>
     <row r="444">
-      <c r="H444" s="18"/>
+      <c r="H444" s="20"/>
     </row>
     <row r="445">
-      <c r="H445" s="18"/>
+      <c r="H445" s="20"/>
     </row>
     <row r="446">
-      <c r="H446" s="18"/>
+      <c r="H446" s="20"/>
     </row>
     <row r="447">
-      <c r="H447" s="18"/>
+      <c r="H447" s="20"/>
     </row>
     <row r="448">
-      <c r="H448" s="18"/>
+      <c r="H448" s="20"/>
     </row>
     <row r="449">
-      <c r="H449" s="18"/>
+      <c r="H449" s="20"/>
     </row>
     <row r="450">
-      <c r="H450" s="18"/>
+      <c r="H450" s="20"/>
     </row>
     <row r="451">
-      <c r="H451" s="18"/>
+      <c r="H451" s="20"/>
     </row>
     <row r="452">
-      <c r="H452" s="18"/>
+      <c r="H452" s="20"/>
     </row>
     <row r="453">
-      <c r="H453" s="18"/>
+      <c r="H453" s="20"/>
     </row>
     <row r="454">
-      <c r="H454" s="18"/>
+      <c r="H454" s="20"/>
     </row>
     <row r="455">
-      <c r="H455" s="18"/>
+      <c r="H455" s="20"/>
     </row>
     <row r="456">
-      <c r="H456" s="18"/>
+      <c r="H456" s="20"/>
     </row>
     <row r="457">
-      <c r="H457" s="18"/>
+      <c r="H457" s="20"/>
     </row>
     <row r="458">
-      <c r="H458" s="18"/>
+      <c r="H458" s="20"/>
     </row>
     <row r="459">
-      <c r="H459" s="18"/>
+      <c r="H459" s="20"/>
     </row>
     <row r="460">
-      <c r="H460" s="18"/>
+      <c r="H460" s="20"/>
     </row>
     <row r="461">
-      <c r="H461" s="18"/>
+      <c r="H461" s="20"/>
     </row>
     <row r="462">
-      <c r="H462" s="18"/>
+      <c r="H462" s="20"/>
     </row>
     <row r="463">
-      <c r="H463" s="18"/>
+      <c r="H463" s="20"/>
     </row>
     <row r="464">
-      <c r="H464" s="18"/>
+      <c r="H464" s="20"/>
     </row>
     <row r="465">
-      <c r="H465" s="18"/>
+      <c r="H465" s="20"/>
     </row>
     <row r="466">
-      <c r="H466" s="18"/>
+      <c r="H466" s="20"/>
     </row>
     <row r="467">
-      <c r="H467" s="18"/>
+      <c r="H467" s="20"/>
     </row>
     <row r="468">
-      <c r="H468" s="18"/>
+      <c r="H468" s="20"/>
     </row>
     <row r="469">
-      <c r="H469" s="18"/>
+      <c r="H469" s="20"/>
     </row>
     <row r="470">
-      <c r="H470" s="18"/>
+      <c r="H470" s="20"/>
     </row>
     <row r="471">
-      <c r="H471" s="18"/>
+      <c r="H471" s="20"/>
     </row>
     <row r="472">
-      <c r="H472" s="18"/>
+      <c r="H472" s="20"/>
     </row>
     <row r="473">
-      <c r="H473" s="18"/>
+      <c r="H473" s="20"/>
     </row>
     <row r="474">
-      <c r="H474" s="18"/>
+      <c r="H474" s="20"/>
     </row>
     <row r="475">
-      <c r="H475" s="18"/>
+      <c r="H475" s="20"/>
     </row>
     <row r="476">
-      <c r="H476" s="18"/>
+      <c r="H476" s="20"/>
     </row>
     <row r="477">
-      <c r="H477" s="18"/>
+      <c r="H477" s="20"/>
     </row>
     <row r="478">
-      <c r="H478" s="18"/>
+      <c r="H478" s="20"/>
     </row>
     <row r="479">
-      <c r="H479" s="18"/>
+      <c r="H479" s="20"/>
     </row>
     <row r="480">
-      <c r="H480" s="18"/>
+      <c r="H480" s="20"/>
     </row>
     <row r="481">
-      <c r="H481" s="18"/>
+      <c r="H481" s="20"/>
     </row>
     <row r="482">
-      <c r="H482" s="18"/>
+      <c r="H482" s="20"/>
     </row>
     <row r="483">
-      <c r="H483" s="18"/>
+      <c r="H483" s="20"/>
     </row>
     <row r="484">
-      <c r="H484" s="18"/>
+      <c r="H484" s="20"/>
     </row>
     <row r="485">
-      <c r="H485" s="18"/>
+      <c r="H485" s="20"/>
     </row>
     <row r="486">
-      <c r="H486" s="18"/>
+      <c r="H486" s="20"/>
     </row>
     <row r="487">
-      <c r="H487" s="18"/>
+      <c r="H487" s="20"/>
     </row>
     <row r="488">
-      <c r="H488" s="18"/>
+      <c r="H488" s="20"/>
     </row>
     <row r="489">
-      <c r="H489" s="18"/>
+      <c r="H489" s="20"/>
     </row>
     <row r="490">
-      <c r="H490" s="18"/>
+      <c r="H490" s="20"/>
     </row>
     <row r="491">
-      <c r="H491" s="18"/>
+      <c r="H491" s="20"/>
     </row>
     <row r="492">
-      <c r="H492" s="18"/>
+      <c r="H492" s="20"/>
     </row>
     <row r="493">
-      <c r="H493" s="18"/>
+      <c r="H493" s="20"/>
     </row>
     <row r="494">
-      <c r="H494" s="18"/>
+      <c r="H494" s="20"/>
     </row>
     <row r="495">
-      <c r="H495" s="18"/>
+      <c r="H495" s="20"/>
     </row>
     <row r="496">
-      <c r="H496" s="18"/>
+      <c r="H496" s="20"/>
     </row>
     <row r="497">
-      <c r="H497" s="18"/>
+      <c r="H497" s="20"/>
     </row>
     <row r="498">
-      <c r="H498" s="18"/>
+      <c r="H498" s="20"/>
     </row>
     <row r="499">
-      <c r="H499" s="18"/>
+      <c r="H499" s="20"/>
     </row>
     <row r="500">
-      <c r="H500" s="18"/>
+      <c r="H500" s="20"/>
     </row>
     <row r="501">
-      <c r="H501" s="18"/>
+      <c r="H501" s="20"/>
     </row>
     <row r="502">
-      <c r="H502" s="18"/>
+      <c r="H502" s="20"/>
     </row>
     <row r="503">
-      <c r="H503" s="18"/>
+      <c r="H503" s="20"/>
     </row>
     <row r="504">
-      <c r="H504" s="18"/>
+      <c r="H504" s="20"/>
     </row>
     <row r="505">
-      <c r="H505" s="18"/>
+      <c r="H505" s="20"/>
     </row>
     <row r="506">
-      <c r="H506" s="18"/>
+      <c r="H506" s="20"/>
     </row>
     <row r="507">
-      <c r="H507" s="18"/>
+      <c r="H507" s="20"/>
     </row>
     <row r="508">
-      <c r="H508" s="18"/>
+      <c r="H508" s="20"/>
     </row>
     <row r="509">
-      <c r="H509" s="18"/>
+      <c r="H509" s="20"/>
     </row>
     <row r="510">
-      <c r="H510" s="18"/>
+      <c r="H510" s="20"/>
     </row>
     <row r="511">
-      <c r="H511" s="18"/>
+      <c r="H511" s="20"/>
     </row>
     <row r="512">
-      <c r="H512" s="18"/>
+      <c r="H512" s="20"/>
     </row>
     <row r="513">
-      <c r="H513" s="18"/>
+      <c r="H513" s="20"/>
     </row>
     <row r="514">
-      <c r="H514" s="18"/>
+      <c r="H514" s="20"/>
     </row>
     <row r="515">
-      <c r="H515" s="18"/>
+      <c r="H515" s="20"/>
     </row>
     <row r="516">
-      <c r="H516" s="18"/>
+      <c r="H516" s="20"/>
     </row>
     <row r="517">
-      <c r="H517" s="18"/>
+      <c r="H517" s="20"/>
     </row>
     <row r="518">
-      <c r="H518" s="18"/>
+      <c r="H518" s="20"/>
     </row>
     <row r="519">
-      <c r="H519" s="18"/>
+      <c r="H519" s="20"/>
     </row>
     <row r="520">
-      <c r="H520" s="18"/>
+      <c r="H520" s="20"/>
     </row>
     <row r="521">
-      <c r="H521" s="18"/>
+      <c r="H521" s="20"/>
     </row>
     <row r="522">
-      <c r="H522" s="18"/>
+      <c r="H522" s="20"/>
     </row>
     <row r="523">
-      <c r="H523" s="18"/>
+      <c r="H523" s="20"/>
     </row>
     <row r="524">
-      <c r="H524" s="18"/>
+      <c r="H524" s="20"/>
     </row>
     <row r="525">
-      <c r="H525" s="18"/>
+      <c r="H525" s="20"/>
     </row>
     <row r="526">
-      <c r="H526" s="18"/>
+      <c r="H526" s="20"/>
     </row>
     <row r="527">
-      <c r="H527" s="18"/>
+      <c r="H527" s="20"/>
     </row>
     <row r="528">
-      <c r="H528" s="18"/>
+      <c r="H528" s="20"/>
     </row>
     <row r="529">
-      <c r="H529" s="18"/>
+      <c r="H529" s="20"/>
     </row>
     <row r="530">
-      <c r="H530" s="18"/>
+      <c r="H530" s="20"/>
     </row>
     <row r="531">
-      <c r="H531" s="18"/>
+      <c r="H531" s="20"/>
     </row>
     <row r="532">
-      <c r="H532" s="18"/>
+      <c r="H532" s="20"/>
     </row>
     <row r="533">
-      <c r="H533" s="18"/>
+      <c r="H533" s="20"/>
     </row>
     <row r="534">
-      <c r="H534" s="18"/>
+      <c r="H534" s="20"/>
     </row>
     <row r="535">
-      <c r="H535" s="18"/>
+      <c r="H535" s="20"/>
     </row>
     <row r="536">
-      <c r="H536" s="18"/>
+      <c r="H536" s="20"/>
     </row>
     <row r="537">
-      <c r="H537" s="18"/>
+      <c r="H537" s="20"/>
     </row>
     <row r="538">
-      <c r="H538" s="18"/>
+      <c r="H538" s="20"/>
     </row>
     <row r="539">
-      <c r="H539" s="18"/>
+      <c r="H539" s="20"/>
     </row>
     <row r="540">
-      <c r="H540" s="18"/>
+      <c r="H540" s="20"/>
     </row>
     <row r="541">
-      <c r="H541" s="18"/>
+      <c r="H541" s="20"/>
     </row>
     <row r="542">
-      <c r="H542" s="18"/>
+      <c r="H542" s="20"/>
     </row>
     <row r="543">
-      <c r="H543" s="18"/>
+      <c r="H543" s="20"/>
     </row>
     <row r="544">
-      <c r="H544" s="18"/>
+      <c r="H544" s="20"/>
     </row>
     <row r="545">
-      <c r="H545" s="18"/>
+      <c r="H545" s="20"/>
     </row>
     <row r="546">
-      <c r="H546" s="18"/>
+      <c r="H546" s="20"/>
     </row>
     <row r="547">
-      <c r="H547" s="18"/>
+      <c r="H547" s="20"/>
     </row>
     <row r="548">
-      <c r="H548" s="18"/>
+      <c r="H548" s="20"/>
     </row>
     <row r="549">
-      <c r="H549" s="18"/>
+      <c r="H549" s="20"/>
     </row>
     <row r="550">
-      <c r="H550" s="18"/>
+      <c r="H550" s="20"/>
     </row>
     <row r="551">
-      <c r="H551" s="18"/>
+      <c r="H551" s="20"/>
     </row>
     <row r="552">
-      <c r="H552" s="18"/>
+      <c r="H552" s="20"/>
     </row>
     <row r="553">
-      <c r="H553" s="18"/>
+      <c r="H553" s="20"/>
     </row>
     <row r="554">
-      <c r="H554" s="18"/>
+      <c r="H554" s="20"/>
     </row>
     <row r="555">
-      <c r="H555" s="18"/>
+      <c r="H555" s="20"/>
     </row>
     <row r="556">
-      <c r="H556" s="18"/>
+      <c r="H556" s="20"/>
     </row>
     <row r="557">
-      <c r="H557" s="18"/>
+      <c r="H557" s="20"/>
     </row>
     <row r="558">
-      <c r="H558" s="18"/>
+      <c r="H558" s="20"/>
     </row>
     <row r="559">
-      <c r="H559" s="18"/>
+      <c r="H559" s="20"/>
     </row>
     <row r="560">
-      <c r="H560" s="18"/>
+      <c r="H560" s="20"/>
     </row>
     <row r="561">
-      <c r="H561" s="18"/>
+      <c r="H561" s="20"/>
     </row>
     <row r="562">
-      <c r="H562" s="18"/>
+      <c r="H562" s="20"/>
     </row>
     <row r="563">
-      <c r="H563" s="18"/>
+      <c r="H563" s="20"/>
     </row>
     <row r="564">
-      <c r="H564" s="18"/>
+      <c r="H564" s="20"/>
     </row>
     <row r="565">
-      <c r="H565" s="18"/>
+      <c r="H565" s="20"/>
     </row>
     <row r="566">
-      <c r="H566" s="18"/>
+      <c r="H566" s="20"/>
     </row>
     <row r="567">
-      <c r="H567" s="18"/>
+      <c r="H567" s="20"/>
     </row>
     <row r="568">
-      <c r="H568" s="18"/>
+      <c r="H568" s="20"/>
     </row>
     <row r="569">
-      <c r="H569" s="18"/>
+      <c r="H569" s="20"/>
     </row>
     <row r="570">
-      <c r="H570" s="18"/>
+      <c r="H570" s="20"/>
     </row>
     <row r="571">
-      <c r="H571" s="18"/>
+      <c r="H571" s="20"/>
     </row>
     <row r="572">
-      <c r="H572" s="18"/>
+      <c r="H572" s="20"/>
     </row>
     <row r="573">
-      <c r="H573" s="18"/>
+      <c r="H573" s="20"/>
     </row>
     <row r="574">
-      <c r="H574" s="18"/>
+      <c r="H574" s="20"/>
     </row>
     <row r="575">
-      <c r="H575" s="18"/>
+      <c r="H575" s="20"/>
     </row>
     <row r="576">
-      <c r="H576" s="18"/>
+      <c r="H576" s="20"/>
     </row>
     <row r="577">
-      <c r="H577" s="18"/>
+      <c r="H577" s="20"/>
     </row>
     <row r="578">
-      <c r="H578" s="18"/>
+      <c r="H578" s="20"/>
     </row>
     <row r="579">
-      <c r="H579" s="18"/>
+      <c r="H579" s="20"/>
     </row>
     <row r="580">
-      <c r="H580" s="18"/>
+      <c r="H580" s="20"/>
     </row>
     <row r="581">
-      <c r="H581" s="18"/>
+      <c r="H581" s="20"/>
     </row>
     <row r="582">
-      <c r="H582" s="18"/>
+      <c r="H582" s="20"/>
     </row>
     <row r="583">
-      <c r="H583" s="18"/>
+      <c r="H583" s="20"/>
     </row>
     <row r="584">
-      <c r="H584" s="18"/>
+      <c r="H584" s="20"/>
     </row>
     <row r="585">
-      <c r="H585" s="18"/>
+      <c r="H585" s="20"/>
     </row>
     <row r="586">
-      <c r="H586" s="18"/>
+      <c r="H586" s="20"/>
     </row>
     <row r="587">
-      <c r="H587" s="18"/>
+      <c r="H587" s="20"/>
     </row>
     <row r="588">
-      <c r="H588" s="18"/>
+      <c r="H588" s="20"/>
     </row>
     <row r="589">
-      <c r="H589" s="18"/>
+      <c r="H589" s="20"/>
     </row>
     <row r="590">
-      <c r="H590" s="18"/>
+      <c r="H590" s="20"/>
     </row>
     <row r="591">
-      <c r="H591" s="18"/>
+      <c r="H591" s="20"/>
     </row>
     <row r="592">
-      <c r="H592" s="18"/>
+      <c r="H592" s="20"/>
     </row>
     <row r="593">
-      <c r="H593" s="18"/>
+      <c r="H593" s="20"/>
     </row>
     <row r="594">
-      <c r="H594" s="18"/>
+      <c r="H594" s="20"/>
     </row>
     <row r="595">
-      <c r="H595" s="18"/>
+      <c r="H595" s="20"/>
     </row>
     <row r="596">
-      <c r="H596" s="18"/>
+      <c r="H596" s="20"/>
     </row>
     <row r="597">
-      <c r="H597" s="18"/>
+      <c r="H597" s="20"/>
     </row>
     <row r="598">
-      <c r="H598" s="18"/>
+      <c r="H598" s="20"/>
     </row>
     <row r="599">
-      <c r="H599" s="18"/>
+      <c r="H599" s="20"/>
     </row>
     <row r="600">
-      <c r="H600" s="18"/>
+      <c r="H600" s="20"/>
     </row>
     <row r="601">
-      <c r="H601" s="18"/>
+      <c r="H601" s="20"/>
     </row>
     <row r="602">
-      <c r="H602" s="18"/>
+      <c r="H602" s="20"/>
     </row>
     <row r="603">
-      <c r="H603" s="18"/>
+      <c r="H603" s="20"/>
     </row>
     <row r="604">
-      <c r="H604" s="18"/>
+      <c r="H604" s="20"/>
     </row>
     <row r="605">
-      <c r="H605" s="18"/>
+      <c r="H605" s="20"/>
     </row>
     <row r="606">
-      <c r="H606" s="18"/>
+      <c r="H606" s="20"/>
     </row>
     <row r="607">
-      <c r="H607" s="18"/>
+      <c r="H607" s="20"/>
     </row>
     <row r="608">
-      <c r="H608" s="18"/>
+      <c r="H608" s="20"/>
     </row>
     <row r="609">
-      <c r="H609" s="18"/>
+      <c r="H609" s="20"/>
     </row>
     <row r="610">
-      <c r="H610" s="18"/>
+      <c r="H610" s="20"/>
     </row>
     <row r="611">
-      <c r="H611" s="18"/>
+      <c r="H611" s="20"/>
     </row>
     <row r="612">
-      <c r="H612" s="18"/>
+      <c r="H612" s="20"/>
     </row>
     <row r="613">
-      <c r="H613" s="18"/>
+      <c r="H613" s="20"/>
     </row>
     <row r="614">
-      <c r="H614" s="18"/>
+      <c r="H614" s="20"/>
     </row>
     <row r="615">
-      <c r="H615" s="18"/>
+      <c r="H615" s="20"/>
     </row>
     <row r="616">
-      <c r="H616" s="18"/>
+      <c r="H616" s="20"/>
     </row>
     <row r="617">
-      <c r="H617" s="18"/>
+      <c r="H617" s="20"/>
     </row>
     <row r="618">
-      <c r="H618" s="18"/>
+      <c r="H618" s="20"/>
     </row>
     <row r="619">
-      <c r="H619" s="18"/>
+      <c r="H619" s="20"/>
     </row>
     <row r="620">
-      <c r="H620" s="18"/>
+      <c r="H620" s="20"/>
     </row>
     <row r="621">
-      <c r="H621" s="18"/>
+      <c r="H621" s="20"/>
     </row>
     <row r="622">
-      <c r="H622" s="18"/>
+      <c r="H622" s="20"/>
     </row>
     <row r="623">
-      <c r="H623" s="18"/>
+      <c r="H623" s="20"/>
     </row>
     <row r="624">
-      <c r="H624" s="18"/>
+      <c r="H624" s="20"/>
     </row>
     <row r="625">
-      <c r="H625" s="18"/>
+      <c r="H625" s="20"/>
     </row>
     <row r="626">
-      <c r="H626" s="18"/>
+      <c r="H626" s="20"/>
     </row>
     <row r="627">
-      <c r="H627" s="18"/>
+      <c r="H627" s="20"/>
     </row>
     <row r="628">
-      <c r="H628" s="18"/>
+      <c r="H628" s="20"/>
     </row>
     <row r="629">
-      <c r="H629" s="18"/>
+      <c r="H629" s="20"/>
     </row>
     <row r="630">
-      <c r="H630" s="18"/>
+      <c r="H630" s="20"/>
     </row>
     <row r="631">
-      <c r="H631" s="18"/>
+      <c r="H631" s="20"/>
     </row>
     <row r="632">
-      <c r="H632" s="18"/>
+      <c r="H632" s="20"/>
     </row>
     <row r="633">
-      <c r="H633" s="18"/>
+      <c r="H633" s="20"/>
     </row>
     <row r="634">
-      <c r="H634" s="18"/>
+      <c r="H634" s="20"/>
     </row>
     <row r="635">
-      <c r="H635" s="18"/>
+      <c r="H635" s="20"/>
     </row>
     <row r="636">
-      <c r="H636" s="18"/>
+      <c r="H636" s="20"/>
     </row>
     <row r="637">
-      <c r="H637" s="18"/>
+      <c r="H637" s="20"/>
     </row>
     <row r="638">
-      <c r="H638" s="18"/>
+      <c r="H638" s="20"/>
     </row>
     <row r="639">
-      <c r="H639" s="18"/>
+      <c r="H639" s="20"/>
     </row>
     <row r="640">
-      <c r="H640" s="18"/>
+      <c r="H640" s="20"/>
     </row>
     <row r="641">
-      <c r="H641" s="18"/>
+      <c r="H641" s="20"/>
     </row>
     <row r="642">
-      <c r="H642" s="18"/>
+      <c r="H642" s="20"/>
     </row>
     <row r="643">
-      <c r="H643" s="18"/>
+      <c r="H643" s="20"/>
     </row>
     <row r="644">
-      <c r="H644" s="18"/>
+      <c r="H644" s="20"/>
     </row>
     <row r="645">
-      <c r="H645" s="18"/>
+      <c r="H645" s="20"/>
     </row>
     <row r="646">
-      <c r="H646" s="18"/>
+      <c r="H646" s="20"/>
     </row>
     <row r="647">
-      <c r="H647" s="18"/>
+      <c r="H647" s="20"/>
     </row>
     <row r="648">
-      <c r="H648" s="18"/>
+      <c r="H648" s="20"/>
     </row>
     <row r="649">
-      <c r="H649" s="18"/>
+      <c r="H649" s="20"/>
     </row>
     <row r="650">
-      <c r="H650" s="18"/>
+      <c r="H650" s="20"/>
     </row>
     <row r="651">
-      <c r="H651" s="18"/>
+      <c r="H651" s="20"/>
     </row>
     <row r="652">
-      <c r="H652" s="18"/>
+      <c r="H652" s="20"/>
     </row>
     <row r="653">
-      <c r="H653" s="18"/>
+      <c r="H653" s="20"/>
     </row>
     <row r="654">
-      <c r="H654" s="18"/>
+      <c r="H654" s="20"/>
     </row>
     <row r="655">
-      <c r="H655" s="18"/>
+      <c r="H655" s="20"/>
     </row>
     <row r="656">
-      <c r="H656" s="18"/>
+      <c r="H656" s="20"/>
     </row>
     <row r="657">
-      <c r="H657" s="18"/>
+      <c r="H657" s="20"/>
     </row>
     <row r="658">
-      <c r="H658" s="18"/>
+      <c r="H658" s="20"/>
     </row>
     <row r="659">
-      <c r="H659" s="18"/>
+      <c r="H659" s="20"/>
     </row>
     <row r="660">
-      <c r="H660" s="18"/>
+      <c r="H660" s="20"/>
     </row>
     <row r="661">
-      <c r="H661" s="18"/>
+      <c r="H661" s="20"/>
     </row>
     <row r="662">
-      <c r="H662" s="18"/>
+      <c r="H662" s="20"/>
     </row>
     <row r="663">
-      <c r="H663" s="18"/>
+      <c r="H663" s="20"/>
     </row>
     <row r="664">
-      <c r="H664" s="18"/>
+      <c r="H664" s="20"/>
     </row>
     <row r="665">
-      <c r="H665" s="18"/>
+      <c r="H665" s="20"/>
     </row>
     <row r="666">
-      <c r="H666" s="18"/>
+      <c r="H666" s="20"/>
     </row>
     <row r="667">
-      <c r="H667" s="18"/>
+      <c r="H667" s="20"/>
     </row>
     <row r="668">
-      <c r="H668" s="18"/>
+      <c r="H668" s="20"/>
     </row>
     <row r="669">
-      <c r="H669" s="18"/>
+      <c r="H669" s="20"/>
     </row>
     <row r="670">
-      <c r="H670" s="18"/>
+      <c r="H670" s="20"/>
     </row>
     <row r="671">
-      <c r="H671" s="18"/>
+      <c r="H671" s="20"/>
     </row>
     <row r="672">
-      <c r="H672" s="18"/>
+      <c r="H672" s="20"/>
     </row>
     <row r="673">
-      <c r="H673" s="18"/>
+      <c r="H673" s="20"/>
     </row>
     <row r="674">
-      <c r="H674" s="18"/>
+      <c r="H674" s="20"/>
     </row>
     <row r="675">
-      <c r="H675" s="18"/>
+      <c r="H675" s="20"/>
     </row>
     <row r="676">
-      <c r="H676" s="18"/>
+      <c r="H676" s="20"/>
     </row>
     <row r="677">
-      <c r="H677" s="18"/>
+      <c r="H677" s="20"/>
     </row>
     <row r="678">
-      <c r="H678" s="18"/>
+      <c r="H678" s="20"/>
     </row>
     <row r="679">
-      <c r="H679" s="18"/>
+      <c r="H679" s="20"/>
     </row>
     <row r="680">
-      <c r="H680" s="18"/>
+      <c r="H680" s="20"/>
     </row>
     <row r="681">
-      <c r="H681" s="18"/>
+      <c r="H681" s="20"/>
     </row>
     <row r="682">
-      <c r="H682" s="18"/>
+      <c r="H682" s="20"/>
     </row>
     <row r="683">
-      <c r="H683" s="18"/>
+      <c r="H683" s="20"/>
     </row>
     <row r="684">
-      <c r="H684" s="18"/>
+      <c r="H684" s="20"/>
     </row>
     <row r="685">
-      <c r="H685" s="18"/>
+      <c r="H685" s="20"/>
     </row>
     <row r="686">
-      <c r="H686" s="18"/>
+      <c r="H686" s="20"/>
     </row>
     <row r="687">
-      <c r="H687" s="18"/>
+      <c r="H687" s="20"/>
     </row>
     <row r="688">
-      <c r="H688" s="18"/>
+      <c r="H688" s="20"/>
     </row>
     <row r="689">
-      <c r="H689" s="18"/>
+      <c r="H689" s="20"/>
     </row>
     <row r="690">
-      <c r="H690" s="18"/>
+      <c r="H690" s="20"/>
     </row>
     <row r="691">
-      <c r="H691" s="18"/>
+      <c r="H691" s="20"/>
     </row>
     <row r="692">
-      <c r="H692" s="18"/>
+      <c r="H692" s="20"/>
     </row>
     <row r="693">
-      <c r="H693" s="18"/>
+      <c r="H693" s="20"/>
     </row>
     <row r="694">
-      <c r="H694" s="18"/>
+      <c r="H694" s="20"/>
     </row>
     <row r="695">
-      <c r="H695" s="18"/>
+      <c r="H695" s="20"/>
     </row>
     <row r="696">
-      <c r="H696" s="18"/>
+      <c r="H696" s="20"/>
     </row>
     <row r="697">
-      <c r="H697" s="18"/>
+      <c r="H697" s="20"/>
     </row>
     <row r="698">
-      <c r="H698" s="18"/>
+      <c r="H698" s="20"/>
     </row>
     <row r="699">
-      <c r="H699" s="18"/>
+      <c r="H699" s="20"/>
     </row>
     <row r="700">
-      <c r="H700" s="18"/>
+      <c r="H700" s="20"/>
     </row>
     <row r="701">
-      <c r="H701" s="18"/>
+      <c r="H701" s="20"/>
     </row>
     <row r="702">
-      <c r="H702" s="18"/>
+      <c r="H702" s="20"/>
     </row>
     <row r="703">
-      <c r="H703" s="18"/>
+      <c r="H703" s="20"/>
     </row>
     <row r="704">
-      <c r="H704" s="18"/>
+      <c r="H704" s="20"/>
     </row>
     <row r="705">
-      <c r="H705" s="18"/>
+      <c r="H705" s="20"/>
     </row>
     <row r="706">
-      <c r="H706" s="18"/>
+      <c r="H706" s="20"/>
     </row>
     <row r="707">
-      <c r="H707" s="18"/>
+      <c r="H707" s="20"/>
     </row>
     <row r="708">
-      <c r="H708" s="18"/>
+      <c r="H708" s="20"/>
     </row>
     <row r="709">
-      <c r="H709" s="18"/>
+      <c r="H709" s="20"/>
     </row>
     <row r="710">
-      <c r="H710" s="18"/>
+      <c r="H710" s="20"/>
     </row>
     <row r="711">
-      <c r="H711" s="18"/>
+      <c r="H711" s="20"/>
     </row>
     <row r="712">
-      <c r="H712" s="18"/>
+      <c r="H712" s="20"/>
     </row>
     <row r="713">
-      <c r="H713" s="18"/>
+      <c r="H713" s="20"/>
     </row>
     <row r="714">
-      <c r="H714" s="18"/>
+      <c r="H714" s="20"/>
     </row>
     <row r="715">
-      <c r="H715" s="18"/>
+      <c r="H715" s="20"/>
     </row>
     <row r="716">
-      <c r="H716" s="18"/>
+      <c r="H716" s="20"/>
     </row>
     <row r="717">
-      <c r="H717" s="18"/>
+      <c r="H717" s="20"/>
     </row>
     <row r="718">
-      <c r="H718" s="18"/>
+      <c r="H718" s="20"/>
     </row>
     <row r="719">
-      <c r="H719" s="18"/>
+      <c r="H719" s="20"/>
     </row>
     <row r="720">
-      <c r="H720" s="18"/>
+      <c r="H720" s="20"/>
     </row>
     <row r="721">
-      <c r="H721" s="18"/>
+      <c r="H721" s="20"/>
     </row>
     <row r="722">
-      <c r="H722" s="18"/>
+      <c r="H722" s="20"/>
     </row>
     <row r="723">
-      <c r="H723" s="18"/>
+      <c r="H723" s="20"/>
     </row>
     <row r="724">
-      <c r="H724" s="18"/>
+      <c r="H724" s="20"/>
     </row>
     <row r="725">
-      <c r="H725" s="18"/>
+      <c r="H725" s="20"/>
     </row>
     <row r="726">
-      <c r="H726" s="18"/>
+      <c r="H726" s="20"/>
     </row>
     <row r="727">
-      <c r="H727" s="18"/>
+      <c r="H727" s="20"/>
     </row>
     <row r="728">
-      <c r="H728" s="18"/>
+      <c r="H728" s="20"/>
     </row>
     <row r="729">
-      <c r="H729" s="18"/>
+      <c r="H729" s="20"/>
     </row>
     <row r="730">
-      <c r="H730" s="18"/>
+      <c r="H730" s="20"/>
     </row>
     <row r="731">
-      <c r="H731" s="18"/>
+      <c r="H731" s="20"/>
     </row>
     <row r="732">
-      <c r="H732" s="18"/>
+      <c r="H732" s="20"/>
     </row>
     <row r="733">
-      <c r="H733" s="18"/>
+      <c r="H733" s="20"/>
     </row>
     <row r="734">
-      <c r="H734" s="18"/>
+      <c r="H734" s="20"/>
     </row>
     <row r="735">
-      <c r="H735" s="18"/>
+      <c r="H735" s="20"/>
     </row>
     <row r="736">
-      <c r="H736" s="18"/>
+      <c r="H736" s="20"/>
     </row>
     <row r="737">
-      <c r="H737" s="18"/>
+      <c r="H737" s="20"/>
     </row>
     <row r="738">
-      <c r="H738" s="18"/>
+      <c r="H738" s="20"/>
     </row>
     <row r="739">
-      <c r="H739" s="18"/>
+      <c r="H739" s="20"/>
     </row>
     <row r="740">
-      <c r="H740" s="18"/>
+      <c r="H740" s="20"/>
     </row>
     <row r="741">
-      <c r="H741" s="18"/>
+      <c r="H741" s="20"/>
     </row>
     <row r="742">
-      <c r="H742" s="18"/>
+      <c r="H742" s="20"/>
     </row>
     <row r="743">
-      <c r="H743" s="18"/>
+      <c r="H743" s="20"/>
     </row>
     <row r="744">
-      <c r="H744" s="18"/>
+      <c r="H744" s="20"/>
     </row>
     <row r="745">
-      <c r="H745" s="18"/>
+      <c r="H745" s="20"/>
     </row>
     <row r="746">
-      <c r="H746" s="18"/>
+      <c r="H746" s="20"/>
     </row>
     <row r="747">
-      <c r="H747" s="18"/>
+      <c r="H747" s="20"/>
     </row>
     <row r="748">
-      <c r="H748" s="18"/>
+      <c r="H748" s="20"/>
     </row>
     <row r="749">
-      <c r="H749" s="18"/>
+      <c r="H749" s="20"/>
     </row>
     <row r="750">
-      <c r="H750" s="18"/>
+      <c r="H750" s="20"/>
     </row>
     <row r="751">
-      <c r="H751" s="18"/>
+      <c r="H751" s="20"/>
     </row>
     <row r="752">
-      <c r="H752" s="18"/>
+      <c r="H752" s="20"/>
     </row>
     <row r="753">
-      <c r="H753" s="18"/>
+      <c r="H753" s="20"/>
     </row>
     <row r="754">
-      <c r="H754" s="18"/>
+      <c r="H754" s="20"/>
     </row>
     <row r="755">
-      <c r="H755" s="18"/>
+      <c r="H755" s="20"/>
     </row>
     <row r="756">
-      <c r="H756" s="18"/>
+      <c r="H756" s="20"/>
     </row>
     <row r="757">
-      <c r="H757" s="18"/>
+      <c r="H757" s="20"/>
     </row>
     <row r="758">
-      <c r="H758" s="18"/>
+      <c r="H758" s="20"/>
     </row>
     <row r="759">
-      <c r="H759" s="18"/>
+      <c r="H759" s="20"/>
     </row>
     <row r="760">
-      <c r="H760" s="18"/>
+      <c r="H760" s="20"/>
     </row>
     <row r="761">
-      <c r="H761" s="18"/>
+      <c r="H761" s="20"/>
     </row>
     <row r="762">
-      <c r="H762" s="18"/>
+      <c r="H762" s="20"/>
     </row>
     <row r="763">
-      <c r="H763" s="18"/>
+      <c r="H763" s="20"/>
     </row>
     <row r="764">
-      <c r="H764" s="18"/>
+      <c r="H764" s="20"/>
     </row>
     <row r="765">
-      <c r="H765" s="18"/>
+      <c r="H765" s="20"/>
     </row>
     <row r="766">
-      <c r="H766" s="18"/>
+      <c r="H766" s="20"/>
     </row>
     <row r="767">
-      <c r="H767" s="18"/>
+      <c r="H767" s="20"/>
     </row>
     <row r="768">
-      <c r="H768" s="18"/>
+      <c r="H768" s="20"/>
     </row>
     <row r="769">
-      <c r="H769" s="18"/>
+      <c r="H769" s="20"/>
     </row>
     <row r="770">
-      <c r="H770" s="18"/>
+      <c r="H770" s="20"/>
     </row>
     <row r="771">
-      <c r="H771" s="18"/>
+      <c r="H771" s="20"/>
     </row>
     <row r="772">
-      <c r="H772" s="18"/>
+      <c r="H772" s="20"/>
     </row>
     <row r="773">
-      <c r="H773" s="18"/>
+      <c r="H773" s="20"/>
     </row>
     <row r="774">
-      <c r="H774" s="18"/>
+      <c r="H774" s="20"/>
     </row>
     <row r="775">
-      <c r="H775" s="18"/>
+      <c r="H775" s="20"/>
     </row>
     <row r="776">
-      <c r="H776" s="18"/>
+      <c r="H776" s="20"/>
     </row>
     <row r="777">
-      <c r="H777" s="18"/>
+      <c r="H777" s="20"/>
     </row>
     <row r="778">
-      <c r="H778" s="18"/>
+      <c r="H778" s="20"/>
     </row>
     <row r="779">
-      <c r="H779" s="18"/>
+      <c r="H779" s="20"/>
     </row>
     <row r="780">
-      <c r="H780" s="18"/>
+      <c r="H780" s="20"/>
     </row>
     <row r="781">
-      <c r="H781" s="18"/>
+      <c r="H781" s="20"/>
     </row>
     <row r="782">
-      <c r="H782" s="18"/>
+      <c r="H782" s="20"/>
     </row>
     <row r="783">
-      <c r="H783" s="18"/>
+      <c r="H783" s="20"/>
     </row>
     <row r="784">
-      <c r="H784" s="18"/>
+      <c r="H784" s="20"/>
     </row>
     <row r="785">
-      <c r="H785" s="18"/>
+      <c r="H785" s="20"/>
     </row>
     <row r="786">
-      <c r="H786" s="18"/>
+      <c r="H786" s="20"/>
     </row>
     <row r="787">
-      <c r="H787" s="18"/>
+      <c r="H787" s="20"/>
     </row>
     <row r="788">
-      <c r="H788" s="18"/>
+      <c r="H788" s="20"/>
     </row>
     <row r="789">
-      <c r="H789" s="18"/>
+      <c r="H789" s="20"/>
     </row>
     <row r="790">
-      <c r="H790" s="18"/>
+      <c r="H790" s="20"/>
     </row>
     <row r="791">
-      <c r="H791" s="18"/>
+      <c r="H791" s="20"/>
     </row>
     <row r="792">
-      <c r="H792" s="18"/>
+      <c r="H792" s="20"/>
     </row>
     <row r="793">
-      <c r="H793" s="18"/>
+      <c r="H793" s="20"/>
     </row>
     <row r="794">
-      <c r="H794" s="18"/>
+      <c r="H794" s="20"/>
     </row>
     <row r="795">
-      <c r="H795" s="18"/>
+      <c r="H795" s="20"/>
     </row>
     <row r="796">
-      <c r="H796" s="18"/>
+      <c r="H796" s="20"/>
     </row>
     <row r="797">
-      <c r="H797" s="18"/>
+      <c r="H797" s="20"/>
     </row>
     <row r="798">
-      <c r="H798" s="18"/>
+      <c r="H798" s="20"/>
     </row>
     <row r="799">
-      <c r="H799" s="18"/>
+      <c r="H799" s="20"/>
     </row>
     <row r="800">
-      <c r="H800" s="18"/>
+      <c r="H800" s="20"/>
     </row>
     <row r="801">
-      <c r="H801" s="18"/>
+      <c r="H801" s="20"/>
     </row>
     <row r="802">
-      <c r="H802" s="18"/>
+      <c r="H802" s="20"/>
     </row>
     <row r="803">
-      <c r="H803" s="18"/>
+      <c r="H803" s="20"/>
     </row>
     <row r="804">
-      <c r="H804" s="18"/>
+      <c r="H804" s="20"/>
     </row>
     <row r="805">
-      <c r="H805" s="18"/>
+      <c r="H805" s="20"/>
     </row>
     <row r="806">
-      <c r="H806" s="18"/>
+      <c r="H806" s="20"/>
     </row>
     <row r="807">
-      <c r="H807" s="18"/>
+      <c r="H807" s="20"/>
     </row>
     <row r="808">
-      <c r="H808" s="18"/>
+      <c r="H808" s="20"/>
     </row>
     <row r="809">
-      <c r="H809" s="18"/>
+      <c r="H809" s="20"/>
     </row>
     <row r="810">
-      <c r="H810" s="18"/>
+      <c r="H810" s="20"/>
     </row>
     <row r="811">
-      <c r="H811" s="18"/>
+      <c r="H811" s="20"/>
     </row>
     <row r="812">
-      <c r="H812" s="18"/>
+      <c r="H812" s="20"/>
     </row>
     <row r="813">
-      <c r="H813" s="18"/>
+      <c r="H813" s="20"/>
     </row>
     <row r="814">
-      <c r="H814" s="18"/>
+      <c r="H814" s="20"/>
     </row>
     <row r="815">
-      <c r="H815" s="18"/>
+      <c r="H815" s="20"/>
     </row>
     <row r="816">
-      <c r="H816" s="18"/>
+      <c r="H816" s="20"/>
     </row>
     <row r="817">
-      <c r="H817" s="18"/>
+      <c r="H817" s="20"/>
     </row>
     <row r="818">
-      <c r="H818" s="18"/>
+      <c r="H818" s="20"/>
     </row>
     <row r="819">
-      <c r="H819" s="18"/>
+      <c r="H819" s="20"/>
     </row>
     <row r="820">
-      <c r="H820" s="18"/>
+      <c r="H820" s="20"/>
     </row>
     <row r="821">
-      <c r="H821" s="18"/>
+      <c r="H821" s="20"/>
     </row>
     <row r="822">
-      <c r="H822" s="18"/>
+      <c r="H822" s="20"/>
     </row>
     <row r="823">
-      <c r="H823" s="18"/>
+      <c r="H823" s="20"/>
     </row>
     <row r="824">
-      <c r="H824" s="18"/>
+      <c r="H824" s="20"/>
     </row>
     <row r="825">
-      <c r="H825" s="18"/>
+      <c r="H825" s="20"/>
     </row>
     <row r="826">
-      <c r="H826" s="18"/>
+      <c r="H826" s="20"/>
     </row>
     <row r="827">
-      <c r="H827" s="18"/>
+      <c r="H827" s="20"/>
     </row>
     <row r="828">
-      <c r="H828" s="18"/>
+      <c r="H828" s="20"/>
     </row>
     <row r="829">
-      <c r="H829" s="18"/>
+      <c r="H829" s="20"/>
     </row>
     <row r="830">
-      <c r="H830" s="18"/>
+      <c r="H830" s="20"/>
     </row>
     <row r="831">
-      <c r="H831" s="18"/>
+      <c r="H831" s="20"/>
     </row>
     <row r="832">
-      <c r="H832" s="18"/>
+      <c r="H832" s="20"/>
     </row>
     <row r="833">
-      <c r="H833" s="18"/>
+      <c r="H833" s="20"/>
     </row>
     <row r="834">
-      <c r="H834" s="18"/>
+      <c r="H834" s="20"/>
     </row>
     <row r="835">
-      <c r="H835" s="18"/>
+      <c r="H835" s="20"/>
     </row>
     <row r="836">
-      <c r="H836" s="18"/>
+      <c r="H836" s="20"/>
     </row>
     <row r="837">
-      <c r="H837" s="18"/>
+      <c r="H837" s="20"/>
     </row>
     <row r="838">
-      <c r="H838" s="18"/>
+      <c r="H838" s="20"/>
     </row>
     <row r="839">
-      <c r="H839" s="18"/>
+      <c r="H839" s="20"/>
     </row>
     <row r="840">
-      <c r="H840" s="18"/>
+      <c r="H840" s="20"/>
     </row>
     <row r="841">
-      <c r="H841" s="18"/>
+      <c r="H841" s="20"/>
     </row>
     <row r="842">
-      <c r="H842" s="18"/>
+      <c r="H842" s="20"/>
     </row>
     <row r="843">
-      <c r="H843" s="18"/>
+      <c r="H843" s="20"/>
     </row>
     <row r="844">
-      <c r="H844" s="18"/>
+      <c r="H844" s="20"/>
     </row>
     <row r="845">
-      <c r="H845" s="18"/>
+      <c r="H845" s="20"/>
     </row>
     <row r="846">
-      <c r="H846" s="18"/>
+      <c r="H846" s="20"/>
     </row>
     <row r="847">
-      <c r="H847" s="18"/>
+      <c r="H847" s="20"/>
     </row>
     <row r="848">
-      <c r="H848" s="18"/>
+      <c r="H848" s="20"/>
     </row>
     <row r="849">
-      <c r="H849" s="18"/>
+      <c r="H849" s="20"/>
     </row>
     <row r="850">
-      <c r="H850" s="18"/>
+      <c r="H850" s="20"/>
     </row>
     <row r="851">
-      <c r="H851" s="18"/>
+      <c r="H851" s="20"/>
     </row>
     <row r="852">
-      <c r="H852" s="18"/>
+      <c r="H852" s="20"/>
     </row>
     <row r="853">
-      <c r="H853" s="18"/>
+      <c r="H853" s="20"/>
     </row>
     <row r="854">
-      <c r="H854" s="18"/>
+      <c r="H854" s="20"/>
     </row>
     <row r="855">
-      <c r="H855" s="18"/>
+      <c r="H855" s="20"/>
     </row>
     <row r="856">
-      <c r="H856" s="18"/>
+      <c r="H856" s="20"/>
     </row>
     <row r="857">
-      <c r="H857" s="18"/>
+      <c r="H857" s="20"/>
     </row>
     <row r="858">
-      <c r="H858" s="18"/>
+      <c r="H858" s="20"/>
     </row>
     <row r="859">
-      <c r="H859" s="18"/>
+      <c r="H859" s="20"/>
     </row>
     <row r="860">
-      <c r="H860" s="18"/>
+      <c r="H860" s="20"/>
     </row>
     <row r="861">
-      <c r="H861" s="18"/>
+      <c r="H861" s="20"/>
     </row>
     <row r="862">
-      <c r="H862" s="18"/>
+      <c r="H862" s="20"/>
     </row>
     <row r="863">
-      <c r="H863" s="18"/>
+      <c r="H863" s="20"/>
     </row>
     <row r="864">
-      <c r="H864" s="18"/>
+      <c r="H864" s="20"/>
     </row>
     <row r="865">
-      <c r="H865" s="18"/>
+      <c r="H865" s="20"/>
     </row>
     <row r="866">
-      <c r="H866" s="18"/>
+      <c r="H866" s="20"/>
     </row>
     <row r="867">
-      <c r="H867" s="18"/>
+      <c r="H867" s="20"/>
     </row>
     <row r="868">
-      <c r="H868" s="18"/>
+      <c r="H868" s="20"/>
     </row>
     <row r="869">
-      <c r="H869" s="18"/>
+      <c r="H869" s="20"/>
     </row>
     <row r="870">
-      <c r="H870" s="18"/>
+      <c r="H870" s="20"/>
     </row>
     <row r="871">
-      <c r="H871" s="18"/>
+      <c r="H871" s="20"/>
     </row>
     <row r="872">
-      <c r="H872" s="18"/>
+      <c r="H872" s="20"/>
     </row>
     <row r="873">
-      <c r="H873" s="18"/>
+      <c r="H873" s="20"/>
     </row>
     <row r="874">
-      <c r="H874" s="18"/>
+      <c r="H874" s="20"/>
     </row>
     <row r="875">
-      <c r="H875" s="18"/>
+      <c r="H875" s="20"/>
     </row>
     <row r="876">
-      <c r="H876" s="18"/>
+      <c r="H876" s="20"/>
     </row>
     <row r="877">
-      <c r="H877" s="18"/>
+      <c r="H877" s="20"/>
     </row>
     <row r="878">
-      <c r="H878" s="18"/>
+      <c r="H878" s="20"/>
     </row>
     <row r="879">
-      <c r="H879" s="18"/>
+      <c r="H879" s="20"/>
     </row>
     <row r="880">
-      <c r="H880" s="18"/>
+      <c r="H880" s="20"/>
     </row>
     <row r="881">
-      <c r="H881" s="18"/>
+      <c r="H881" s="20"/>
     </row>
     <row r="882">
-      <c r="H882" s="18"/>
+      <c r="H882" s="20"/>
     </row>
     <row r="883">
-      <c r="H883" s="18"/>
+      <c r="H883" s="20"/>
     </row>
     <row r="884">
-      <c r="H884" s="18"/>
+      <c r="H884" s="20"/>
     </row>
     <row r="885">
-      <c r="H885" s="18"/>
+      <c r="H885" s="20"/>
     </row>
     <row r="886">
-      <c r="H886" s="18"/>
+      <c r="H886" s="20"/>
     </row>
     <row r="887">
-      <c r="H887" s="18"/>
+      <c r="H887" s="20"/>
     </row>
     <row r="888">
-      <c r="H888" s="18"/>
+      <c r="H888" s="20"/>
     </row>
     <row r="889">
-      <c r="H889" s="18"/>
+      <c r="H889" s="20"/>
     </row>
     <row r="890">
-      <c r="H890" s="18"/>
+      <c r="H890" s="20"/>
     </row>
     <row r="891">
-      <c r="H891" s="18"/>
+      <c r="H891" s="20"/>
     </row>
     <row r="892">
-      <c r="H892" s="18"/>
+      <c r="H892" s="20"/>
     </row>
     <row r="893">
-      <c r="H893" s="18"/>
+      <c r="H893" s="20"/>
     </row>
     <row r="894">
-      <c r="H894" s="18"/>
+      <c r="H894" s="20"/>
     </row>
     <row r="895">
-      <c r="H895" s="18"/>
+      <c r="H895" s="20"/>
     </row>
     <row r="896">
-      <c r="H896" s="18"/>
+      <c r="H896" s="20"/>
     </row>
     <row r="897">
-      <c r="H897" s="18"/>
+      <c r="H897" s="20"/>
     </row>
     <row r="898">
-      <c r="H898" s="18"/>
+      <c r="H898" s="20"/>
     </row>
     <row r="899">
-      <c r="H899" s="18"/>
+      <c r="H899" s="20"/>
     </row>
     <row r="900">
-      <c r="H900" s="18"/>
+      <c r="H900" s="20"/>
     </row>
     <row r="901">
-      <c r="H901" s="18"/>
+      <c r="H901" s="20"/>
     </row>
     <row r="902">
-      <c r="H902" s="18"/>
+      <c r="H902" s="20"/>
     </row>
     <row r="903">
-      <c r="H903" s="18"/>
+      <c r="H903" s="20"/>
     </row>
     <row r="904">
-      <c r="H904" s="18"/>
+      <c r="H904" s="20"/>
     </row>
     <row r="905">
-      <c r="H905" s="18"/>
+      <c r="H905" s="20"/>
     </row>
     <row r="906">
-      <c r="H906" s="18"/>
+      <c r="H906" s="20"/>
     </row>
     <row r="907">
-      <c r="H907" s="18"/>
+      <c r="H907" s="20"/>
     </row>
     <row r="908">
-      <c r="H908" s="18"/>
+      <c r="H908" s="20"/>
     </row>
     <row r="909">
-      <c r="H909" s="18"/>
+      <c r="H909" s="20"/>
     </row>
     <row r="910">
-      <c r="H910" s="18"/>
+      <c r="H910" s="20"/>
     </row>
     <row r="911">
-      <c r="H911" s="18"/>
+      <c r="H911" s="20"/>
     </row>
     <row r="912">
-      <c r="H912" s="18"/>
+      <c r="H912" s="20"/>
     </row>
     <row r="913">
-      <c r="H913" s="18"/>
+      <c r="H913" s="20"/>
     </row>
     <row r="914">
-      <c r="H914" s="18"/>
+      <c r="H914" s="20"/>
     </row>
     <row r="915">
-      <c r="H915" s="18"/>
+      <c r="H915" s="20"/>
     </row>
     <row r="916">
-      <c r="H916" s="18"/>
+      <c r="H916" s="20"/>
     </row>
     <row r="917">
-      <c r="H917" s="18"/>
+      <c r="H917" s="20"/>
     </row>
     <row r="918">
-      <c r="H918" s="18"/>
+      <c r="H918" s="20"/>
     </row>
     <row r="919">
-      <c r="H919" s="18"/>
+      <c r="H919" s="20"/>
     </row>
     <row r="920">
-      <c r="H920" s="18"/>
+      <c r="H920" s="20"/>
     </row>
     <row r="921">
-      <c r="H921" s="18"/>
+      <c r="H921" s="20"/>
     </row>
     <row r="922">
-      <c r="H922" s="18"/>
+      <c r="H922" s="20"/>
     </row>
     <row r="923">
-      <c r="H923" s="18"/>
+      <c r="H923" s="20"/>
     </row>
     <row r="924">
-      <c r="H924" s="18"/>
+      <c r="H924" s="20"/>
     </row>
     <row r="925">
-      <c r="H925" s="18"/>
+      <c r="H925" s="20"/>
     </row>
     <row r="926">
-      <c r="H926" s="18"/>
+      <c r="H926" s="20"/>
     </row>
     <row r="927">
-      <c r="H927" s="18"/>
+      <c r="H927" s="20"/>
     </row>
     <row r="928">
-      <c r="H928" s="18"/>
+      <c r="H928" s="20"/>
     </row>
     <row r="929">
-      <c r="H929" s="18"/>
+      <c r="H929" s="20"/>
     </row>
     <row r="930">
-      <c r="H930" s="18"/>
+      <c r="H930" s="20"/>
     </row>
     <row r="931">
-      <c r="H931" s="18"/>
+      <c r="H931" s="20"/>
     </row>
     <row r="932">
-      <c r="H932" s="18"/>
+      <c r="H932" s="20"/>
     </row>
     <row r="933">
-      <c r="H933" s="18"/>
+      <c r="H933" s="20"/>
     </row>
     <row r="934">
-      <c r="H934" s="18"/>
+      <c r="H934" s="20"/>
     </row>
     <row r="935">
-      <c r="H935" s="18"/>
+      <c r="H935" s="20"/>
     </row>
     <row r="936">
-      <c r="H936" s="18"/>
+      <c r="H936" s="20"/>
     </row>
     <row r="937">
-      <c r="H937" s="18"/>
+      <c r="H937" s="20"/>
     </row>
     <row r="938">
-      <c r="H938" s="18"/>
+      <c r="H938" s="20"/>
     </row>
     <row r="939">
-      <c r="H939" s="18"/>
+      <c r="H939" s="20"/>
     </row>
     <row r="940">
-      <c r="H940" s="18"/>
+      <c r="H940" s="20"/>
     </row>
     <row r="941">
-      <c r="H941" s="18"/>
+      <c r="H941" s="20"/>
     </row>
     <row r="942">
-      <c r="H942" s="18"/>
+      <c r="H942" s="20"/>
     </row>
     <row r="943">
-      <c r="H943" s="18"/>
+      <c r="H943" s="20"/>
     </row>
     <row r="944">
-      <c r="H944" s="18"/>
+      <c r="H944" s="20"/>
     </row>
     <row r="945">
-      <c r="H945" s="18"/>
+      <c r="H945" s="20"/>
     </row>
     <row r="946">
-      <c r="H946" s="18"/>
+      <c r="H946" s="20"/>
     </row>
     <row r="947">
-      <c r="H947" s="18"/>
+      <c r="H947" s="20"/>
     </row>
     <row r="948">
-      <c r="H948" s="18"/>
+      <c r="H948" s="20"/>
     </row>
     <row r="949">
-      <c r="H949" s="18"/>
+      <c r="H949" s="20"/>
     </row>
     <row r="950">
-      <c r="H950" s="18"/>
+      <c r="H950" s="20"/>
     </row>
     <row r="951">
-      <c r="H951" s="18"/>
+      <c r="H951" s="20"/>
     </row>
     <row r="952">
-      <c r="H952" s="18"/>
+      <c r="H952" s="20"/>
     </row>
     <row r="953">
-      <c r="H953" s="18"/>
+      <c r="H953" s="20"/>
     </row>
     <row r="954">
-      <c r="H954" s="18"/>
+      <c r="H954" s="20"/>
     </row>
     <row r="955">
-      <c r="H955" s="18"/>
+      <c r="H955" s="20"/>
     </row>
     <row r="956">
-      <c r="H956" s="18"/>
+      <c r="H956" s="20"/>
     </row>
     <row r="957">
-      <c r="H957" s="18"/>
+      <c r="H957" s="20"/>
     </row>
     <row r="958">
-      <c r="H958" s="18"/>
+      <c r="H958" s="20"/>
     </row>
     <row r="959">
-      <c r="H959" s="18"/>
+      <c r="H959" s="20"/>
     </row>
     <row r="960">
-      <c r="H960" s="18"/>
+      <c r="H960" s="20"/>
     </row>
     <row r="961">
-      <c r="H961" s="18"/>
+      <c r="H961" s="20"/>
     </row>
     <row r="962">
-      <c r="H962" s="18"/>
+      <c r="H962" s="20"/>
     </row>
     <row r="963">
-      <c r="H963" s="18"/>
+      <c r="H963" s="20"/>
     </row>
     <row r="964">
-      <c r="H964" s="18"/>
+      <c r="H964" s="20"/>
     </row>
     <row r="965">
-      <c r="H965" s="18"/>
+      <c r="H965" s="20"/>
     </row>
     <row r="966">
-      <c r="H966" s="18"/>
+      <c r="H966" s="20"/>
     </row>
     <row r="967">
-      <c r="H967" s="18"/>
+      <c r="H967" s="20"/>
     </row>
     <row r="968">
-      <c r="H968" s="18"/>
+      <c r="H968" s="20"/>
     </row>
     <row r="969">
-      <c r="H969" s="18"/>
+      <c r="H969" s="20"/>
     </row>
     <row r="970">
-      <c r="H970" s="18"/>
+      <c r="H970" s="20"/>
     </row>
     <row r="971">
-      <c r="H971" s="18"/>
+      <c r="H971" s="20"/>
     </row>
     <row r="972">
-      <c r="H972" s="18"/>
+      <c r="H972" s="20"/>
     </row>
     <row r="973">
-      <c r="H973" s="18"/>
+      <c r="H973" s="20"/>
     </row>
     <row r="974">
-      <c r="H974" s="18"/>
+      <c r="H974" s="20"/>
     </row>
     <row r="975">
-      <c r="H975" s="18"/>
+      <c r="H975" s="20"/>
     </row>
     <row r="976">
-      <c r="H976" s="18"/>
+      <c r="H976" s="20"/>
     </row>
     <row r="977">
-      <c r="H977" s="18"/>
+      <c r="H977" s="20"/>
     </row>
     <row r="978">
-      <c r="H978" s="18"/>
+      <c r="H978" s="20"/>
     </row>
     <row r="979">
-      <c r="H979" s="18"/>
+      <c r="H979" s="20"/>
     </row>
     <row r="980">
-      <c r="H980" s="18"/>
+      <c r="H980" s="20"/>
     </row>
     <row r="981">
-      <c r="H981" s="18"/>
+      <c r="H981" s="20"/>
     </row>
     <row r="982">
-      <c r="H982" s="18"/>
+      <c r="H982" s="20"/>
     </row>
     <row r="983">
-      <c r="H983" s="18"/>
+      <c r="H983" s="20"/>
     </row>
     <row r="984">
-      <c r="H984" s="18"/>
+      <c r="H984" s="20"/>
     </row>
     <row r="985">
-      <c r="H985" s="18"/>
+      <c r="H985" s="20"/>
     </row>
     <row r="986">
-      <c r="H986" s="18"/>
+      <c r="H986" s="20"/>
     </row>
     <row r="987">
-      <c r="H987" s="18"/>
+      <c r="H987" s="20"/>
     </row>
     <row r="988">
-      <c r="H988" s="18"/>
+      <c r="H988" s="20"/>
     </row>
     <row r="989">
-      <c r="H989" s="18"/>
+      <c r="H989" s="20"/>
     </row>
     <row r="990">
-      <c r="H990" s="18"/>
+      <c r="H990" s="20"/>
     </row>
     <row r="991">
-      <c r="H991" s="18"/>
+      <c r="H991" s="20"/>
     </row>
     <row r="992">
-      <c r="H992" s="18"/>
+      <c r="H992" s="20"/>
     </row>
     <row r="993">
-      <c r="H993" s="18"/>
+      <c r="H993" s="20"/>
     </row>
     <row r="994">
-      <c r="H994" s="18"/>
+      <c r="H994" s="20"/>
     </row>
     <row r="995">
-      <c r="H995" s="18"/>
+      <c r="H995" s="20"/>
     </row>
     <row r="996">
-      <c r="H996" s="18"/>
+      <c r="H996" s="20"/>
     </row>
     <row r="997">
-      <c r="H997" s="18"/>
+      <c r="H997" s="20"/>
     </row>
     <row r="998">
-      <c r="H998" s="18"/>
+      <c r="H998" s="20"/>
     </row>
     <row r="999">
-      <c r="H999" s="18"/>
+      <c r="H999" s="20"/>
     </row>
     <row r="1000">
-      <c r="H1000" s="18"/>
+      <c r="H1000" s="20"/>
     </row>
     <row r="1001">
-      <c r="H1001" s="18"/>
+      <c r="H1001" s="20"/>
     </row>
     <row r="1002">
-      <c r="H1002" s="18"/>
+      <c r="H1002" s="20"/>
     </row>
     <row r="1003">
-      <c r="H1003" s="18"/>
+      <c r="H1003" s="20"/>
     </row>
     <row r="1004">
-      <c r="H1004" s="18"/>
+      <c r="H1004" s="20"/>
     </row>
     <row r="1005">
-      <c r="H1005" s="18"/>
+      <c r="H1005" s="20"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
